--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -151,12 +151,20 @@
     <t>奖励类型(1 金币 2 体力 3 物品 4 亲密度 5 小游戏币 6 另一个掉落 7 小游戏)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 10秒， 1踢屁股，2临幸，3约会，4记忆翻盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -573,24 +581,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -612,10 +622,12 @@
       <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -640,12 +652,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -667,936 +679,1313 @@
       <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="6">
+        <v>11001</v>
+      </c>
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="B7" s="6">
+        <v>13001</v>
+      </c>
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="D7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>13001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>60001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>60001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>16001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>16001</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>60001</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="B14" s="6">
+        <v>60001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>60001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>60001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>60001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>60001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1610,24 +1999,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -192,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,13 +205,93 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -223,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +320,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -730,52 +858,54 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>13001</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
         <v>10000</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="14">
         <v>13001</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
         <v>5000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="14">
         <v>60001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -799,251 +929,337 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>15001</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
         <v>10000</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="11">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="14">
         <v>15001</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
         <v>5000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="14">
         <v>6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="14">
         <v>60001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="14">
         <v>0</v>
       </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="17">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="18">
         <v>16001</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
         <v>10000</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="17">
         <v>1800</v>
       </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="17">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="18">
         <v>16001</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
         <v>5000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="18">
         <v>6</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="18">
         <v>60001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="18">
         <v>0</v>
       </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="21">
         <v>60001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="21">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="22">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="21">
         <v>60001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="21">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="22">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="20">
         <v>5</v>
       </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="21">
         <v>60001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="21">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="22">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="21">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="21">
         <v>60001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="22">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="20">
         <v>5</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="21">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="21">
         <v>60001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="21">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="22">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="20">
         <v>5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="21">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10</v>
+      </c>
+      <c r="E21" s="23">
+        <v>4</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="23">
+        <v>5</v>
+      </c>
+      <c r="F22" s="23">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>10</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="23">
+        <v>20001</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1051,7 +1267,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1059,7 +1275,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1067,7 +1283,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1075,7 +1291,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1083,7 +1299,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1091,7 +1307,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1099,7 +1315,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1107,7 +1323,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -159,12 +159,164 @@
     <t>0 10秒， 1踢屁股，2临幸，3约会，4记忆翻盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>后宫卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜汤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧猪蹄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠粉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>油布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银针</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>簪子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报时妆奁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>送子观音</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红绸子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂毛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率得20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率得20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率得20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物金币主位卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品金币主位卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服金币主位卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币主位卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币卡临幸主位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%金币临幸20011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%金币临幸20011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%金币临幸20011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%金币主位卡20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%金币主位卡20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%金币主位卡20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -191,8 +343,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +382,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -294,6 +465,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -303,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +554,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -726,9 +924,10 @@
     <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -753,9 +952,14 @@
       <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -780,12 +984,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -810,8 +1014,14 @@
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>10001</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -833,8 +1043,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>20001</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -856,8 +1072,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>20002</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -880,8 +1102,14 @@
         <v>2500</v>
       </c>
       <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>20003</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -904,8 +1132,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>20004</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -927,8 +1161,14 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>20005</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -951,8 +1191,14 @@
         <v>600</v>
       </c>
       <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>20006</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -975,8 +1221,14 @@
         <v>0</v>
       </c>
       <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>30001</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>8</v>
       </c>
@@ -999,8 +1251,14 @@
         <v>1800</v>
       </c>
       <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>30002</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>9</v>
       </c>
@@ -1023,8 +1281,14 @@
         <v>0</v>
       </c>
       <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>30003</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>10</v>
       </c>
@@ -1047,8 +1311,14 @@
         <v>1</v>
       </c>
       <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>30004</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>11</v>
       </c>
@@ -1071,8 +1341,14 @@
         <v>1</v>
       </c>
       <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>30005</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>12</v>
       </c>
@@ -1095,8 +1371,14 @@
         <v>1</v>
       </c>
       <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>30006</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>13</v>
       </c>
@@ -1119,8 +1401,14 @@
         <v>1</v>
       </c>
       <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>30007</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>14</v>
       </c>
@@ -1143,8 +1431,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>30008</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1164,10 +1458,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1800</v>
+      </c>
+      <c r="I19">
+        <v>40001</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1189,10 +1489,16 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>40002</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6">
         <v>20001</v>
@@ -1204,18 +1510,24 @@
         <v>10</v>
       </c>
       <c r="E21" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>40003</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6">
         <v>20001</v>
@@ -1227,19 +1539,23 @@
         <v>10</v>
       </c>
       <c r="E22" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="23">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
+        <v>20001</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>40004</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23"/>
       <c r="B23" s="6">
         <v>20001</v>
       </c>
@@ -1252,277 +1568,1086 @@
       <c r="E23" s="23">
         <v>3</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23">
+        <v>20002</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24" s="6">
         <v>20001</v>
       </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="23">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>20003</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>20001</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10</v>
+      </c>
+      <c r="E25" s="23">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>20004</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>20002</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="23">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>20005</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>20003</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>10</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>20006</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>20004</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <v>20001</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>10001</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>20005</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1800</v>
+      </c>
+      <c r="I29">
+        <v>20006</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>20007</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10</v>
+      </c>
+      <c r="E31" s="23">
+        <v>5</v>
+      </c>
+      <c r="F31" s="23">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>20008</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10</v>
+      </c>
+      <c r="E32" s="23">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>30001</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>20009</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>10</v>
+      </c>
+      <c r="E33" s="23">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>30002</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>20010</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>10</v>
+      </c>
+      <c r="E34" s="23">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>30003</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>20011</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>10</v>
+      </c>
+      <c r="E35" s="23">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>30004</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>20012</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>10</v>
+      </c>
+      <c r="E36" s="23">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>30005</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>20013</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>10</v>
+      </c>
+      <c r="E37" s="23">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>30006</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>20014</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>10</v>
+      </c>
+      <c r="E38" s="23">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>30007</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>20015</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
+        <v>20002</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>10</v>
+      </c>
+      <c r="E39" s="23">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>10001</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>20016</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1800</v>
+      </c>
+      <c r="I40">
+        <v>20017</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>10</v>
+      </c>
+      <c r="E41" s="23">
+        <v>2</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>20018</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>10</v>
+      </c>
+      <c r="E42" s="23">
+        <v>5</v>
+      </c>
+      <c r="F42" s="23">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>10</v>
+      </c>
+      <c r="E43" s="23">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>40001</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>10</v>
+      </c>
+      <c r="E44" s="23">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>40002</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>10</v>
+      </c>
+      <c r="E45" s="23">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>40003</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>10</v>
+      </c>
+      <c r="E46" s="23">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>40004</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>10</v>
+      </c>
+      <c r="E47" s="23">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>40005</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>10</v>
+      </c>
+      <c r="E48" s="23">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>10001</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="9">
+        <v>20004</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E49" s="11">
+        <v>6</v>
+      </c>
+      <c r="F49" s="11">
+        <v>20001</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="14">
+        <v>20005</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6</v>
+      </c>
+      <c r="F50" s="14">
+        <v>20002</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="9">
+        <v>20006</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E51" s="23">
+        <v>6</v>
+      </c>
+      <c r="F51" s="23">
+        <v>20003</v>
+      </c>
+      <c r="G51" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="14">
+        <v>20007</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="11">
+        <v>6</v>
+      </c>
+      <c r="F52" s="11">
+        <v>20001</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="9">
+        <v>20008</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="14">
+        <v>6</v>
+      </c>
+      <c r="F53" s="14">
+        <v>20002</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="14">
+        <v>20009</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="23">
+        <v>6</v>
+      </c>
+      <c r="F54" s="23">
+        <v>20003</v>
+      </c>
+      <c r="G54" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="27">
+        <v>20010</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="27">
+        <v>20010</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>10</v>
+      </c>
+      <c r="E56" s="23">
+        <v>5</v>
+      </c>
+      <c r="F56" s="23">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="27">
+        <v>20010</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7">
+        <v>10</v>
+      </c>
+      <c r="E57" s="23">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>10001</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="27">
+        <v>20011</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="27">
+        <v>20011.333333333299</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>10</v>
+      </c>
+      <c r="E59" s="23">
+        <v>5</v>
+      </c>
+      <c r="F59" s="23">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="27">
+        <v>20011.833333333299</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E60" s="23">
+        <v>6</v>
+      </c>
+      <c r="F60" s="23">
+        <v>20011</v>
+      </c>
+      <c r="G60" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="29">
+        <v>20013</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E61" s="23">
+        <v>6</v>
+      </c>
+      <c r="F61" s="23">
+        <v>20011</v>
+      </c>
+      <c r="G61" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="27">
+        <v>20014</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="23">
+        <v>6</v>
+      </c>
+      <c r="F62" s="23">
+        <v>20011</v>
+      </c>
+      <c r="G62" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="29">
+        <v>20015</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" s="7">
+        <v>10</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="29">
+        <v>20015</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6">
+        <v>3</v>
+      </c>
+      <c r="F64" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="27">
+        <v>20016</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E65" s="6">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>20015</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="29">
+        <v>20017</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="6">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>20015</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="29">
+        <v>20018</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="6">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>20015</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -395,22 +395,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -432,17 +421,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,31 +486,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -556,16 +528,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,13 +891,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
@@ -1022,7 +1003,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
       <c r="B5" s="6">
@@ -1046,12 +1027,12 @@
       <c r="I5">
         <v>20001</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="28">
         <v>2</v>
       </c>
       <c r="B6" s="6">
@@ -1075,72 +1056,72 @@
       <c r="I6">
         <v>20002</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>13001</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
         <v>10000</v>
       </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>2500</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="11"/>
       <c r="I7">
         <v>20003</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>13001</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
         <v>5000</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>6</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>60001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
       <c r="I8">
         <v>20004</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="29">
         <v>5</v>
       </c>
       <c r="B9" s="6">
@@ -1164,282 +1145,282 @@
       <c r="I9">
         <v>20005</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="29">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>15001</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
         <v>10000</v>
       </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>600</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="11"/>
       <c r="I10">
         <v>20006</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="29">
         <v>7</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>15001</v>
       </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
         <v>5000</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>6</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>60001</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="14"/>
       <c r="I11">
         <v>30001</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="29">
         <v>8</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <v>16001</v>
       </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
         <v>10000</v>
       </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>1800</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="15"/>
       <c r="I12">
         <v>30002</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="29">
         <v>9</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="16">
         <v>16001</v>
       </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
         <v>5000</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>6</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>60001</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="15"/>
       <c r="I13">
         <v>30003</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="A14" s="29">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19">
         <v>60001</v>
       </c>
-      <c r="C14" s="21">
-        <v>2</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="19">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20">
         <v>20</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>5</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>0</v>
       </c>
-      <c r="G14" s="20">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20"/>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
       <c r="I14">
         <v>30004</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="A15" s="29">
         <v>11</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <v>60001</v>
       </c>
-      <c r="C15" s="21">
-        <v>2</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
         <v>20</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>5</v>
       </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20"/>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15">
         <v>30005</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="29">
         <v>12</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <v>60001</v>
       </c>
-      <c r="C16" s="21">
-        <v>2</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="19">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="21">
-        <v>2</v>
-      </c>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20"/>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18"/>
       <c r="I16">
         <v>30006</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="29">
         <v>13</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>60001</v>
       </c>
-      <c r="C17" s="21">
-        <v>2</v>
-      </c>
-      <c r="D17" s="22">
-        <v>10</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="C17" s="19">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>10</v>
+      </c>
+      <c r="E17" s="18">
         <v>5</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="20">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20"/>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18"/>
       <c r="I17">
         <v>30007</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="29">
         <v>14</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>60001</v>
       </c>
-      <c r="C18" s="21">
-        <v>2</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="19">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20">
         <v>20</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>5</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>4</v>
       </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20"/>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18">
         <v>30008</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="29">
         <v>15</v>
       </c>
       <c r="B19" s="6">
@@ -1454,7 +1435,7 @@
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>0</v>
       </c>
       <c r="G19" s="6">
@@ -1463,12 +1444,12 @@
       <c r="I19">
         <v>40001</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="29">
         <v>16</v>
       </c>
       <c r="B20" s="6">
@@ -1480,10 +1461,10 @@
       <c r="D20" s="7">
         <v>10</v>
       </c>
-      <c r="E20" s="23">
-        <v>2</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21">
         <v>0</v>
       </c>
       <c r="G20">
@@ -1492,13 +1473,13 @@
       <c r="I20">
         <v>40002</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>18</v>
+      <c r="A21" s="29">
+        <v>17</v>
       </c>
       <c r="B21" s="6">
         <v>20001</v>
@@ -1509,10 +1490,10 @@
       <c r="D21" s="7">
         <v>10</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>5</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>2</v>
       </c>
       <c r="G21">
@@ -1521,13 +1502,13 @@
       <c r="I21">
         <v>40003</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>19</v>
+      <c r="A22" s="29">
+        <v>18</v>
       </c>
       <c r="B22" s="6">
         <v>20001</v>
@@ -1538,10 +1519,10 @@
       <c r="D22" s="7">
         <v>10</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>3</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>20001</v>
       </c>
       <c r="G22" s="6">
@@ -1550,12 +1531,14 @@
       <c r="I22">
         <v>40004</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23"/>
+      <c r="A23" s="29">
+        <v>19</v>
+      </c>
       <c r="B23" s="6">
         <v>20001</v>
       </c>
@@ -1565,7 +1548,7 @@
       <c r="D23" s="7">
         <v>10</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>3</v>
       </c>
       <c r="F23">
@@ -1576,7 +1559,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24"/>
+      <c r="A24" s="29">
+        <v>20</v>
+      </c>
       <c r="B24" s="6">
         <v>20001</v>
       </c>
@@ -1586,7 +1571,7 @@
       <c r="D24" s="7">
         <v>10</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>3</v>
       </c>
       <c r="F24">
@@ -1603,7 +1588,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25"/>
+      <c r="A25" s="29">
+        <v>21</v>
+      </c>
       <c r="B25" s="6">
         <v>20001</v>
       </c>
@@ -1613,7 +1600,7 @@
       <c r="D25" s="7">
         <v>10</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>3</v>
       </c>
       <c r="F25">
@@ -1630,7 +1617,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26"/>
+      <c r="A26" s="29">
+        <v>22</v>
+      </c>
       <c r="B26" s="6">
         <v>20001</v>
       </c>
@@ -1640,7 +1629,7 @@
       <c r="D26" s="7">
         <v>10</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>3</v>
       </c>
       <c r="F26">
@@ -1657,7 +1646,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27"/>
+      <c r="A27" s="29">
+        <v>23</v>
+      </c>
       <c r="B27" s="6">
         <v>20001</v>
       </c>
@@ -1667,7 +1658,7 @@
       <c r="D27" s="7">
         <v>10</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>3</v>
       </c>
       <c r="F27">
@@ -1679,12 +1670,14 @@
       <c r="I27">
         <v>20004</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28"/>
+      <c r="A28" s="29">
+        <v>24</v>
+      </c>
       <c r="B28" s="6">
         <v>20001</v>
       </c>
@@ -1694,7 +1687,7 @@
       <c r="D28" s="7">
         <v>10</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="21">
         <v>3</v>
       </c>
       <c r="F28">
@@ -1706,12 +1699,14 @@
       <c r="I28">
         <v>20005</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29"/>
+      <c r="A29" s="29">
+        <v>25</v>
+      </c>
       <c r="B29" s="6">
         <v>20002</v>
       </c>
@@ -1724,7 +1719,7 @@
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="21">
         <v>0</v>
       </c>
       <c r="G29" s="6">
@@ -1733,12 +1728,14 @@
       <c r="I29">
         <v>20006</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30"/>
+      <c r="A30" s="29">
+        <v>26</v>
+      </c>
       <c r="B30" s="6">
         <v>20002</v>
       </c>
@@ -1748,10 +1745,10 @@
       <c r="D30" s="7">
         <v>10</v>
       </c>
-      <c r="E30" s="23">
-        <v>2</v>
-      </c>
-      <c r="F30" s="23">
+      <c r="E30" s="21">
+        <v>2</v>
+      </c>
+      <c r="F30" s="21">
         <v>0</v>
       </c>
       <c r="G30">
@@ -1760,12 +1757,14 @@
       <c r="I30">
         <v>20007</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31"/>
+      <c r="A31" s="29">
+        <v>27</v>
+      </c>
       <c r="B31" s="6">
         <v>20002</v>
       </c>
@@ -1775,10 +1774,10 @@
       <c r="D31" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <v>5</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="21">
         <v>2</v>
       </c>
       <c r="G31">
@@ -1787,12 +1786,14 @@
       <c r="I31">
         <v>20008</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32"/>
+      <c r="A32" s="29">
+        <v>28</v>
+      </c>
       <c r="B32" s="6">
         <v>20002</v>
       </c>
@@ -1802,7 +1803,7 @@
       <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="21">
         <v>3</v>
       </c>
       <c r="F32">
@@ -1814,12 +1815,14 @@
       <c r="I32">
         <v>20009</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33"/>
+      <c r="A33" s="29">
+        <v>29</v>
+      </c>
       <c r="B33" s="6">
         <v>20002</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="D33" s="7">
         <v>10</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="21">
         <v>3</v>
       </c>
       <c r="F33">
@@ -1846,7 +1849,9 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34"/>
+      <c r="A34" s="29">
+        <v>30</v>
+      </c>
       <c r="B34" s="6">
         <v>20002</v>
       </c>
@@ -1856,7 +1861,7 @@
       <c r="D34" s="7">
         <v>10</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="21">
         <v>3</v>
       </c>
       <c r="F34">
@@ -1873,7 +1878,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35"/>
+      <c r="A35" s="29">
+        <v>31</v>
+      </c>
       <c r="B35" s="6">
         <v>20002</v>
       </c>
@@ -1883,7 +1890,7 @@
       <c r="D35" s="7">
         <v>10</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="21">
         <v>3</v>
       </c>
       <c r="F35">
@@ -1900,7 +1907,9 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36"/>
+      <c r="A36" s="29">
+        <v>32</v>
+      </c>
       <c r="B36" s="6">
         <v>20002</v>
       </c>
@@ -1910,7 +1919,7 @@
       <c r="D36" s="7">
         <v>10</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="21">
         <v>3</v>
       </c>
       <c r="F36">
@@ -1927,7 +1936,9 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37"/>
+      <c r="A37" s="29">
+        <v>33</v>
+      </c>
       <c r="B37" s="6">
         <v>20002</v>
       </c>
@@ -1937,7 +1948,7 @@
       <c r="D37" s="7">
         <v>10</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <v>3</v>
       </c>
       <c r="F37">
@@ -1954,7 +1965,9 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38"/>
+      <c r="A38" s="29">
+        <v>34</v>
+      </c>
       <c r="B38" s="6">
         <v>20002</v>
       </c>
@@ -1964,7 +1977,7 @@
       <c r="D38" s="7">
         <v>10</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="21">
         <v>3</v>
       </c>
       <c r="F38">
@@ -1981,7 +1994,9 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39"/>
+      <c r="A39" s="29">
+        <v>35</v>
+      </c>
       <c r="B39" s="6">
         <v>20002</v>
       </c>
@@ -1991,7 +2006,7 @@
       <c r="D39" s="7">
         <v>10</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <v>3</v>
       </c>
       <c r="F39">
@@ -2008,7 +2023,9 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40"/>
+      <c r="A40" s="29">
+        <v>36</v>
+      </c>
       <c r="B40" s="6">
         <v>20003</v>
       </c>
@@ -2021,7 +2038,7 @@
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="21">
         <v>0</v>
       </c>
       <c r="G40" s="6">
@@ -2035,7 +2052,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41"/>
+      <c r="A41" s="29">
+        <v>37</v>
+      </c>
       <c r="B41" s="6">
         <v>20003</v>
       </c>
@@ -2045,10 +2064,10 @@
       <c r="D41" s="7">
         <v>10</v>
       </c>
-      <c r="E41" s="23">
-        <v>2</v>
-      </c>
-      <c r="F41" s="23">
+      <c r="E41" s="21">
+        <v>2</v>
+      </c>
+      <c r="F41" s="21">
         <v>0</v>
       </c>
       <c r="G41">
@@ -2062,7 +2081,9 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42"/>
+      <c r="A42" s="29">
+        <v>38</v>
+      </c>
       <c r="B42" s="6">
         <v>20003</v>
       </c>
@@ -2072,10 +2093,10 @@
       <c r="D42" s="7">
         <v>10</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="21">
         <v>5</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="21">
         <v>2</v>
       </c>
       <c r="G42">
@@ -2083,7 +2104,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43"/>
+      <c r="A43" s="29">
+        <v>39</v>
+      </c>
       <c r="B43" s="6">
         <v>20003</v>
       </c>
@@ -2093,7 +2116,7 @@
       <c r="D43" s="7">
         <v>10</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="21">
         <v>3</v>
       </c>
       <c r="F43">
@@ -2104,7 +2127,9 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44"/>
+      <c r="A44" s="29">
+        <v>40</v>
+      </c>
       <c r="B44" s="6">
         <v>20003</v>
       </c>
@@ -2114,7 +2139,7 @@
       <c r="D44" s="7">
         <v>10</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="21">
         <v>3</v>
       </c>
       <c r="F44">
@@ -2125,7 +2150,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45"/>
+      <c r="A45" s="29">
+        <v>41</v>
+      </c>
       <c r="B45" s="6">
         <v>20003</v>
       </c>
@@ -2135,7 +2162,7 @@
       <c r="D45" s="7">
         <v>10</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="21">
         <v>3</v>
       </c>
       <c r="F45">
@@ -2146,7 +2173,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46"/>
+      <c r="A46" s="29">
+        <v>42</v>
+      </c>
       <c r="B46" s="6">
         <v>20003</v>
       </c>
@@ -2156,7 +2185,7 @@
       <c r="D46" s="7">
         <v>10</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="21">
         <v>3</v>
       </c>
       <c r="F46">
@@ -2167,7 +2196,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47"/>
+      <c r="A47" s="29">
+        <v>43</v>
+      </c>
       <c r="B47" s="6">
         <v>20003</v>
       </c>
@@ -2177,7 +2208,7 @@
       <c r="D47" s="7">
         <v>10</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <v>3</v>
       </c>
       <c r="F47">
@@ -2188,7 +2219,9 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
+      <c r="A48" s="29">
+        <v>44</v>
+      </c>
       <c r="B48" s="6">
         <v>20003</v>
       </c>
@@ -2198,7 +2231,7 @@
       <c r="D48" s="7">
         <v>10</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="21">
         <v>3</v>
       </c>
       <c r="F48">
@@ -2209,50 +2242,56 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49" s="9">
+      <c r="A49" s="29">
+        <v>45</v>
+      </c>
+      <c r="B49" s="8">
         <v>20004</v>
       </c>
-      <c r="C49" s="9">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
         <v>5000</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>6</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>20001</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50" s="14">
+      <c r="A50" s="29">
+        <v>46</v>
+      </c>
+      <c r="B50" s="12">
         <v>20005</v>
       </c>
-      <c r="C50" s="14">
-        <v>1</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13">
         <v>5000</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="12">
         <v>6</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="12">
         <v>20002</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51" s="9">
+      <c r="A51" s="29">
+        <v>47</v>
+      </c>
+      <c r="B51" s="8">
         <v>20006</v>
       </c>
       <c r="C51" s="6">
@@ -2261,82 +2300,90 @@
       <c r="D51" s="7">
         <v>5000</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="21">
         <v>6</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="21">
         <v>20003</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52" s="14">
+      <c r="A52" s="29">
+        <v>48</v>
+      </c>
+      <c r="B52" s="12">
         <v>20007</v>
       </c>
-      <c r="C52" s="9">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
         <v>3000</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>6</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>20001</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53" s="9">
+      <c r="A53" s="29">
+        <v>49</v>
+      </c>
+      <c r="B53" s="8">
         <v>20008</v>
       </c>
-      <c r="C53" s="14">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9">
         <v>3000</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="12">
         <v>6</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="12">
         <v>20002</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54" s="14">
+      <c r="A54" s="29">
+        <v>50</v>
+      </c>
+      <c r="B54" s="12">
         <v>20009</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>3000</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <v>6</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="21">
         <v>20003</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55" s="27">
+      <c r="A55" s="29">
+        <v>51</v>
+      </c>
+      <c r="B55" s="25">
         <v>20010</v>
       </c>
       <c r="C55" s="6">
@@ -2348,7 +2395,7 @@
       <c r="E55" s="6">
         <v>1</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="21">
         <v>0</v>
       </c>
       <c r="G55" s="6">
@@ -2356,8 +2403,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56" s="27">
+      <c r="A56" s="29">
+        <v>52</v>
+      </c>
+      <c r="B56" s="25">
         <v>20010</v>
       </c>
       <c r="C56" s="6">
@@ -2366,10 +2415,10 @@
       <c r="D56" s="7">
         <v>10</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="21">
         <v>5</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="21">
         <v>2</v>
       </c>
       <c r="G56">
@@ -2377,8 +2426,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57" s="27">
+      <c r="A57" s="29">
+        <v>53</v>
+      </c>
+      <c r="B57" s="25">
         <v>20010</v>
       </c>
       <c r="C57" s="6">
@@ -2387,7 +2438,7 @@
       <c r="D57" s="7">
         <v>10</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="21">
         <v>3</v>
       </c>
       <c r="F57">
@@ -2398,8 +2449,10 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58" s="27">
+      <c r="A58" s="29">
+        <v>54</v>
+      </c>
+      <c r="B58" s="25">
         <v>20011</v>
       </c>
       <c r="C58" s="6">
@@ -2411,7 +2464,7 @@
       <c r="E58" s="6">
         <v>1</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="21">
         <v>0</v>
       </c>
       <c r="G58" s="6">
@@ -2419,8 +2472,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59" s="27">
+      <c r="A59" s="29">
+        <v>55</v>
+      </c>
+      <c r="B59" s="25">
         <v>20011.333333333299</v>
       </c>
       <c r="C59" s="6">
@@ -2429,10 +2484,10 @@
       <c r="D59" s="7">
         <v>10</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="21">
         <v>5</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="21">
         <v>2</v>
       </c>
       <c r="G59">
@@ -2440,8 +2495,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-      <c r="B60" s="27">
+      <c r="A60" s="29">
+        <v>56</v>
+      </c>
+      <c r="B60" s="25">
         <v>20011.833333333299</v>
       </c>
       <c r="C60" s="6">
@@ -2450,19 +2507,21 @@
       <c r="D60" s="7">
         <v>8000</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="21">
         <v>6</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="21">
         <v>20011</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61" s="29">
+      <c r="A61" s="29">
+        <v>57</v>
+      </c>
+      <c r="B61" s="27">
         <v>20013</v>
       </c>
       <c r="C61" s="6">
@@ -2471,19 +2530,21 @@
       <c r="D61" s="7">
         <v>5000</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="21">
         <v>6</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="21">
         <v>20011</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="B62" s="27">
+      <c r="A62" s="29">
+        <v>58</v>
+      </c>
+      <c r="B62" s="25">
         <v>20014</v>
       </c>
       <c r="C62" s="6">
@@ -2492,19 +2553,21 @@
       <c r="D62" s="7">
         <v>3000</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="21">
         <v>6</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="21">
         <v>20011</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="B63" s="29">
+      <c r="A63" s="29">
+        <v>59</v>
+      </c>
+      <c r="B63" s="27">
         <v>20015</v>
       </c>
       <c r="C63" s="6">
@@ -2513,7 +2576,7 @@
       <c r="D63" s="7">
         <v>10</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="21">
         <v>0</v>
       </c>
       <c r="G63" s="6">
@@ -2521,8 +2584,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64" s="29">
+      <c r="A64" s="29">
+        <v>60</v>
+      </c>
+      <c r="B64" s="27">
         <v>20015</v>
       </c>
       <c r="C64" s="6">
@@ -2542,8 +2607,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65" s="27">
+      <c r="A65" s="29">
+        <v>61</v>
+      </c>
+      <c r="B65" s="25">
         <v>20016</v>
       </c>
       <c r="C65" s="6">
@@ -2563,8 +2630,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66" s="29">
+      <c r="A66" s="29">
+        <v>62</v>
+      </c>
+      <c r="B66" s="27">
         <v>20017</v>
       </c>
       <c r="C66" s="6">
@@ -2584,8 +2653,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67" s="29">
+      <c r="A67" s="29">
+        <v>63</v>
+      </c>
+      <c r="B67" s="27">
         <v>20018</v>
       </c>
       <c r="C67" s="6">
@@ -2605,53 +2676,53 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68"/>
+      <c r="A68" s="29"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69"/>
+      <c r="A69" s="29"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70"/>
+      <c r="A70" s="29"/>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71"/>
+      <c r="A71" s="29"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72"/>
+      <c r="A72" s="29"/>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73"/>
+      <c r="A73" s="29"/>
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74"/>
+      <c r="A74" s="29"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75"/>
+      <c r="A75" s="29"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76"/>
+      <c r="A76" s="29"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77"/>
+      <c r="A77" s="30"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78"/>
+      <c r="A78" s="30"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79"/>
+      <c r="A79" s="30"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80"/>
+      <c r="A80" s="30"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81"/>
+      <c r="A81" s="30"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -891,14 +891,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
     <col min="3" max="3" width="21.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.09765625" bestFit="1" customWidth="1"/>
@@ -2476,7 +2476,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="25">
-        <v>20011.333333333299</v>
+        <v>20011</v>
       </c>
       <c r="C59" s="6">
         <v>2</v>
@@ -2499,7 +2499,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="25">
-        <v>20011.833333333299</v>
+        <v>20011</v>
       </c>
       <c r="C60" s="6">
         <v>1</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -889,10 +889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J306"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2677,40 +2680,127 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="29"/>
+      <c r="B68" s="27">
+        <v>30001</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
+      <c r="B69" s="27">
+        <v>30002</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="29"/>
-      <c r="C70" s="6"/>
+      <c r="B70" s="27">
+        <v>30003</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="29"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="27">
+        <v>30004</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="29"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="27">
+        <v>40001</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="29"/>
+      <c r="B74" s="27"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="27"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
+      <c r="B77" s="27"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
@@ -2719,10 +2809,10 @@
       <c r="A79" s="30"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="A80"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
+      <c r="A81"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82"/>
@@ -3392,12 +3482,6 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -892,10 +892,10 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2702,34 +2702,34 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
       <c r="B69" s="27">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="C69" s="6">
         <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E69" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F69" s="6">
-        <v>0</v>
+        <v>60002</v>
       </c>
       <c r="G69" s="6">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="29"/>
       <c r="B70" s="27">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="C70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -2738,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="G70" s="6">
-        <v>1800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="29"/>
       <c r="B71" s="27">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="C71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
@@ -2759,19 +2759,19 @@
         <v>0</v>
       </c>
       <c r="G71" s="6">
-        <v>1800</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="29"/>
       <c r="B72" s="27">
-        <v>40001</v>
+        <v>30002</v>
       </c>
       <c r="C72" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
@@ -2780,33 +2780,125 @@
         <v>0</v>
       </c>
       <c r="G72" s="6">
-        <v>1800</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
+      <c r="B73" s="27">
+        <v>30002</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" s="7">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <v>6900</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="29"/>
-      <c r="B74" s="27"/>
+      <c r="B74" s="27">
+        <v>30003</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" s="7">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
-      <c r="B75" s="27"/>
+      <c r="B75" s="27">
+        <v>30003</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" s="7">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <v>2000</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="30"/>
-      <c r="B76" s="27"/>
+      <c r="B76" s="27">
+        <v>40001</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
-      <c r="B77" s="27"/>
+      <c r="B77" s="27">
+        <v>40001</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="6">
+        <v>4</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="30"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80"/>
@@ -2859,100 +2951,424 @@
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C103" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>20001</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C104" s="6">
+        <v>2</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>20002</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C105" s="6">
+        <v>2</v>
+      </c>
+      <c r="D105" s="7">
+        <v>1</v>
+      </c>
+      <c r="E105" s="6">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>20003</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C106" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1</v>
+      </c>
+      <c r="E106" s="6">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>20004</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" s="7">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>20005</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
+      <c r="E108" s="6">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>20006</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2</v>
+      </c>
+      <c r="D109" s="7">
+        <v>1</v>
+      </c>
+      <c r="E109" s="6">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>30001</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1</v>
+      </c>
+      <c r="E110" s="6">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>30002</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" s="7">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>30003</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C112" s="6">
+        <v>2</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>30004</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C113" s="6">
+        <v>2</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>30005</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C114" s="6">
+        <v>2</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>30006</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C115" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>30007</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C116" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>30008</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C117" s="6">
+        <v>2</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>40001</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C118" s="6">
+        <v>2</v>
+      </c>
+      <c r="D118" s="7">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>40002</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C119" s="6">
+        <v>2</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>40003</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C120" s="6">
+        <v>2</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
+      <c r="E120" s="6">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>40004</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -892,10 +892,10 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76:G77"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2679,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
+      <c r="A68" s="29">
+        <v>64</v>
+      </c>
       <c r="B68" s="27">
         <v>30001</v>
       </c>
@@ -2700,7 +2702,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
+      <c r="A69" s="29">
+        <v>65</v>
+      </c>
       <c r="B69" s="27">
         <v>30001</v>
       </c>
@@ -2721,7 +2725,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+      <c r="A70" s="29">
+        <v>66</v>
+      </c>
       <c r="B70" s="27">
         <v>30002</v>
       </c>
@@ -2742,7 +2748,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
+      <c r="A71" s="29">
+        <v>67</v>
+      </c>
       <c r="B71" s="27">
         <v>30002</v>
       </c>
@@ -2763,7 +2771,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
+      <c r="A72" s="29">
+        <v>68</v>
+      </c>
       <c r="B72" s="27">
         <v>30002</v>
       </c>
@@ -2784,7 +2794,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
+      <c r="A73" s="29">
+        <v>69</v>
+      </c>
       <c r="B73" s="27">
         <v>30002</v>
       </c>
@@ -2805,7 +2817,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
+      <c r="A74" s="29">
+        <v>70</v>
+      </c>
       <c r="B74" s="27">
         <v>30003</v>
       </c>
@@ -2826,7 +2840,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
+      <c r="A75" s="29">
+        <v>71</v>
+      </c>
       <c r="B75" s="27">
         <v>30003</v>
       </c>
@@ -2847,7 +2863,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
+      <c r="A76" s="29">
+        <v>72</v>
+      </c>
       <c r="B76" s="27">
         <v>40001</v>
       </c>
@@ -2868,7 +2886,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
+      <c r="A77" s="29">
+        <v>73</v>
+      </c>
       <c r="B77" s="27">
         <v>40001</v>
       </c>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -892,10 +892,10 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>20005</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -892,10 +892,10 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>20005</v>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="20">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E16" s="18">
         <v>5</v>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -349,6 +349,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -467,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +559,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,10 +910,10 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1103,8 +1121,8 @@
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
-        <v>5000</v>
+      <c r="D8" s="32">
+        <v>10000</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -1339,8 +1357,8 @@
       <c r="B16" s="19">
         <v>60001</v>
       </c>
-      <c r="C16" s="19">
-        <v>2</v>
+      <c r="C16" s="31">
+        <v>100</v>
       </c>
       <c r="D16" s="20">
         <v>50</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -349,12 +349,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -561,10 +555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +907,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1115,7 @@
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>10000</v>
       </c>
       <c r="E8" s="12">
@@ -1357,10 +1351,10 @@
       <c r="B16" s="19">
         <v>60001</v>
       </c>
-      <c r="C16" s="31">
-        <v>100</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="19">
+        <v>2</v>
+      </c>
+      <c r="D16" s="32">
         <v>50</v>
       </c>
       <c r="E16" s="18">
@@ -1370,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16">
@@ -1390,8 +1384,8 @@
       <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D17" s="20">
-        <v>10</v>
+      <c r="D17" s="32">
+        <v>50</v>
       </c>
       <c r="E17" s="18">
         <v>5</v>
@@ -1400,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -904,10 +904,10 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="31">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E16" s="18">
         <v>5</v>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16">
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E17" s="18">
         <v>5</v>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Reward" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>雨衣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>凤袍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -240,75 +236,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率得20001</t>
+    <t>食物主位卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率得20002</t>
+    <t>50%概率得20001或金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率得20003</t>
+    <t>物品主位卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%概率得20001</t>
+    <t>50%概率得20002或金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%概率得20002</t>
+    <t>衣服主位卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%概率得20003</t>
+    <t>50%概率得20003或金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币卡临幸</t>
+    <t>卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食物金币主位卡临幸</t>
+    <t>主位卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品金币主位卡临幸</t>
+    <t>80%临幸20%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衣服金币主位卡临幸</t>
+    <t>50%金币或临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币主位卡</t>
+    <r>
+      <t>30%临幸70</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币卡临幸主位</t>
+    <t>卡临幸主位各50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80%金币临幸20011</t>
+    <t>30%概率得20001或70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%金币临幸20011</t>
+    <t>30%概率得20002或70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%金币临幸20011</t>
+    <t>30%概率得20003或70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80%金币主位卡20015</t>
+    <r>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主位卡50%金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%金币主位卡20015</t>
+    <t>80%主位卡20%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%金币主位卡20015</t>
+    <t>30%主位卡70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -355,6 +383,13 @@
       <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -473,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,13 +587,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,13 +942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J304"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -949,10 +990,10 @@
         <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1066,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>20002</v>
@@ -1095,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7">
@@ -1115,8 +1156,8 @@
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="31">
-        <v>5000</v>
+      <c r="D8" s="30">
+        <v>2000</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -1205,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="12">
         <v>6</v>
@@ -1265,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="16">
         <v>6</v>
@@ -1354,7 +1395,7 @@
       <c r="C16" s="19">
         <v>2</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>20</v>
       </c>
       <c r="E16" s="18">
@@ -1384,7 +1425,7 @@
       <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>20</v>
       </c>
       <c r="E17" s="18">
@@ -1405,9 +1446,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
-        <v>14</v>
-      </c>
+      <c r="A18" s="29"/>
       <c r="B18" s="19">
         <v>60001</v>
       </c>
@@ -1427,40 +1466,35 @@
         <v>1</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18">
-        <v>30008</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>52</v>
-      </c>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6">
-        <v>20001</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1800</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="19">
+        <v>60001</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>10001</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>40001</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>53</v>
+        <v>30008</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1489,7 +1523,7 @@
         <v>40002</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1518,7 +1552,7 @@
         <v>40003</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1547,7 +1581,7 @@
         <v>40004</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1599,7 +1633,7 @@
         <v>20001</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1628,7 +1662,7 @@
         <v>20002</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1657,7 +1691,7 @@
         <v>20003</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1715,12 +1749,12 @@
         <v>20005</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6">
         <v>20002</v>
@@ -1731,25 +1765,25 @@
       <c r="D29" s="7">
         <v>10</v>
       </c>
-      <c r="E29" s="6">
-        <v>1</v>
+      <c r="E29" s="21">
+        <v>2</v>
       </c>
       <c r="F29" s="21">
         <v>0</v>
       </c>
-      <c r="G29" s="6">
-        <v>1800</v>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="I29">
         <v>20006</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6">
         <v>20002</v>
@@ -1761,10 +1795,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1773,12 +1807,12 @@
         <v>20007</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6">
         <v>20002</v>
@@ -1790,24 +1824,24 @@
         <v>10</v>
       </c>
       <c r="E31" s="21">
-        <v>5</v>
-      </c>
-      <c r="F31" s="21">
-        <v>2</v>
-      </c>
-      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>30001</v>
+      </c>
+      <c r="G31" s="6">
         <v>1</v>
       </c>
       <c r="I31">
         <v>20008</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6">
         <v>20002</v>
@@ -1822,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>30001</v>
+        <v>30002</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
@@ -1831,12 +1865,12 @@
         <v>20009</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6">
         <v>20002</v>
@@ -1851,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>30002</v>
+        <v>30003</v>
       </c>
       <c r="G33" s="6">
         <v>1</v>
@@ -1860,12 +1894,12 @@
         <v>20010</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6">
         <v>20002</v>
@@ -1880,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="F34">
-        <v>30003</v>
+        <v>30004</v>
       </c>
       <c r="G34" s="6">
         <v>1</v>
@@ -1889,12 +1923,12 @@
         <v>20011</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6">
         <v>20002</v>
@@ -1909,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <v>30004</v>
+        <v>30005</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
@@ -1918,12 +1952,12 @@
         <v>20012</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6">
         <v>20002</v>
@@ -1938,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>30005</v>
+        <v>30006</v>
       </c>
       <c r="G36" s="6">
         <v>1</v>
@@ -1947,12 +1981,12 @@
         <v>20013</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6">
         <v>20002</v>
@@ -1967,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <v>30006</v>
+        <v>30007</v>
       </c>
       <c r="G37" s="6">
         <v>1</v>
@@ -1976,12 +2010,12 @@
         <v>20014</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6">
         <v>20002</v>
@@ -1996,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="F38">
-        <v>30007</v>
+        <v>10001</v>
       </c>
       <c r="G38" s="6">
         <v>1</v>
@@ -2005,15 +2039,15 @@
         <v>20015</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -2022,12 +2056,12 @@
         <v>10</v>
       </c>
       <c r="E39" s="21">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>10001</v>
-      </c>
-      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>1</v>
       </c>
       <c r="I39">
@@ -2039,7 +2073,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>20003</v>
@@ -2050,25 +2084,25 @@
       <c r="D40" s="7">
         <v>10</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
+      <c r="E40" s="21">
+        <v>5</v>
       </c>
       <c r="F40" s="21">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="I40">
         <v>20017</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>74</v>
+      <c r="J40" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
         <v>20003</v>
@@ -2080,24 +2114,24 @@
         <v>10</v>
       </c>
       <c r="E41" s="21">
-        <v>2</v>
-      </c>
-      <c r="F41" s="21">
-        <v>0</v>
-      </c>
-      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>40001</v>
+      </c>
+      <c r="G41" s="6">
         <v>1</v>
       </c>
       <c r="I41">
         <v>20018</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>20003</v>
@@ -2109,18 +2143,18 @@
         <v>10</v>
       </c>
       <c r="E42" s="21">
-        <v>5</v>
-      </c>
-      <c r="F42" s="21">
-        <v>2</v>
-      </c>
-      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>40002</v>
+      </c>
+      <c r="G42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>20003</v>
@@ -2135,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>40001</v>
+        <v>40003</v>
       </c>
       <c r="G43" s="6">
         <v>1</v>
@@ -2143,7 +2177,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6">
         <v>20003</v>
@@ -2158,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <v>40002</v>
+        <v>40004</v>
       </c>
       <c r="G44" s="6">
         <v>1</v>
@@ -2166,7 +2200,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6">
         <v>20003</v>
@@ -2181,15 +2215,15 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <v>40003</v>
+        <v>40005</v>
       </c>
       <c r="G45" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6">
         <v>20003</v>
@@ -2204,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <v>40004</v>
+        <v>10001</v>
       </c>
       <c r="G46" s="6">
         <v>1</v>
@@ -2212,108 +2246,108 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
-        <v>43</v>
-      </c>
-      <c r="B47" s="6">
-        <v>20003</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>10</v>
-      </c>
-      <c r="E47" s="21">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>40005</v>
-      </c>
-      <c r="G47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>20004</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>50</v>
+      </c>
+      <c r="E47" s="10">
+        <v>6</v>
+      </c>
+      <c r="F47" s="10">
+        <v>20001</v>
+      </c>
+      <c r="G47" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
-        <v>44</v>
-      </c>
-      <c r="B48" s="6">
-        <v>20003</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" s="7">
-        <v>10</v>
-      </c>
-      <c r="E48" s="21">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>10001</v>
-      </c>
-      <c r="G48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="32">
+        <v>20004</v>
+      </c>
+      <c r="C48" s="32">
+        <v>2</v>
+      </c>
+      <c r="D48" s="33">
+        <v>50</v>
+      </c>
+      <c r="E48" s="34">
+        <v>1</v>
+      </c>
+      <c r="F48" s="34">
+        <v>0</v>
+      </c>
+      <c r="G48" s="34">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8">
-        <v>20004</v>
+        <v>47</v>
+      </c>
+      <c r="B49" s="12">
+        <v>20005</v>
       </c>
       <c r="C49" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="9">
-        <v>5000</v>
-      </c>
-      <c r="E49" s="10">
+        <v>50</v>
+      </c>
+      <c r="E49" s="12">
         <v>6</v>
       </c>
-      <c r="F49" s="10">
-        <v>20001</v>
-      </c>
-      <c r="G49" s="10">
+      <c r="F49" s="12">
+        <v>20002</v>
+      </c>
+      <c r="G49" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" s="12">
         <v>20005</v>
       </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13">
-        <v>5000</v>
+      <c r="C50" s="32">
+        <v>2</v>
+      </c>
+      <c r="D50" s="33">
+        <v>50</v>
       </c>
       <c r="E50" s="12">
         <v>6</v>
       </c>
       <c r="F50" s="12">
-        <v>20002</v>
+        <v>0</v>
       </c>
       <c r="G50" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="29">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>20006</v>
       </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7">
-        <v>5000</v>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9">
+        <v>50</v>
       </c>
       <c r="E51" s="21">
         <v>6</v>
@@ -2327,163 +2361,157 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
-        <v>48</v>
-      </c>
-      <c r="B52" s="12">
-        <v>20007</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E52" s="10">
-        <v>6</v>
-      </c>
-      <c r="F52" s="10">
-        <v>20001</v>
-      </c>
-      <c r="G52" s="10">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="32">
+        <v>20006</v>
+      </c>
+      <c r="C52" s="32">
+        <v>2</v>
+      </c>
+      <c r="D52" s="33">
+        <v>50</v>
+      </c>
+      <c r="E52" s="34">
+        <v>1</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0</v>
+      </c>
+      <c r="G52" s="34">
+        <v>1800</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
-        <v>49</v>
-      </c>
-      <c r="B53" s="8">
-        <v>20008</v>
-      </c>
-      <c r="C53" s="12">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B53" s="12">
+        <v>20007</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
       </c>
       <c r="D53" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E53" s="12">
+        <v>30</v>
+      </c>
+      <c r="E53" s="10">
         <v>6</v>
       </c>
-      <c r="F53" s="12">
-        <v>20002</v>
-      </c>
-      <c r="G53" s="12">
+      <c r="F53" s="10">
+        <v>20001</v>
+      </c>
+      <c r="G53" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
-        <v>50</v>
-      </c>
-      <c r="B54" s="12">
-        <v>20009</v>
-      </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E54" s="21">
-        <v>6</v>
-      </c>
-      <c r="F54" s="21">
-        <v>20003</v>
-      </c>
-      <c r="G54" s="21">
-        <v>1</v>
+      <c r="A54" s="29"/>
+      <c r="B54" s="32">
+        <v>20007</v>
+      </c>
+      <c r="C54" s="32">
+        <v>2</v>
+      </c>
+      <c r="D54" s="33">
+        <v>70</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34">
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
-        <v>51</v>
-      </c>
-      <c r="B55" s="25">
-        <v>20010</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2</v>
-      </c>
-      <c r="D55" s="7">
-        <v>10</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="21">
+        <v>52</v>
+      </c>
+      <c r="B55" s="8">
+        <v>20008</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9">
+        <v>30</v>
+      </c>
+      <c r="E55" s="12">
+        <v>6</v>
+      </c>
+      <c r="F55" s="12">
+        <v>20002</v>
+      </c>
+      <c r="G55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="8">
+        <v>20008</v>
+      </c>
+      <c r="C56" s="32">
+        <v>2</v>
+      </c>
+      <c r="D56" s="33">
+        <v>70</v>
+      </c>
+      <c r="E56" s="34">
+        <v>1</v>
+      </c>
+      <c r="F56" s="34">
         <v>0</v>
       </c>
-      <c r="G55" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
-        <v>52</v>
-      </c>
-      <c r="B56" s="25">
-        <v>20010</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" s="7">
-        <v>10</v>
-      </c>
-      <c r="E56" s="21">
-        <v>5</v>
-      </c>
-      <c r="F56" s="21">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+      <c r="G56" s="34">
+        <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>53</v>
       </c>
-      <c r="B57" s="25">
-        <v>20010</v>
-      </c>
-      <c r="C57" s="6">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7">
-        <v>10</v>
+      <c r="B57" s="12">
+        <v>20009</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="9">
+        <v>30</v>
       </c>
       <c r="E57" s="21">
-        <v>3</v>
-      </c>
-      <c r="F57">
-        <v>10001</v>
-      </c>
-      <c r="G57" s="6">
+        <v>6</v>
+      </c>
+      <c r="F57" s="21">
+        <v>20003</v>
+      </c>
+      <c r="G57" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
-        <v>54</v>
-      </c>
-      <c r="B58" s="25">
-        <v>20011</v>
-      </c>
-      <c r="C58" s="6">
-        <v>2</v>
-      </c>
-      <c r="D58" s="7">
-        <v>10</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="21">
+      <c r="A58" s="29"/>
+      <c r="B58" s="12">
+        <v>20009</v>
+      </c>
+      <c r="C58" s="32">
+        <v>2</v>
+      </c>
+      <c r="D58" s="33">
+        <v>70</v>
+      </c>
+      <c r="E58" s="34">
+        <v>1</v>
+      </c>
+      <c r="F58" s="34">
         <v>0</v>
       </c>
-      <c r="G58" s="6">
-        <v>1800</v>
+      <c r="G58" s="34">
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2491,7 +2519,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="25">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="C59" s="6">
         <v>2</v>
@@ -2509,64 +2537,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>56</v>
       </c>
       <c r="B60" s="25">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="C60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="E60" s="21">
-        <v>6</v>
-      </c>
-      <c r="F60" s="21">
-        <v>20011</v>
-      </c>
-      <c r="G60" s="21">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>10001</v>
+      </c>
+      <c r="G60" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
-        <v>57</v>
-      </c>
-      <c r="B61" s="27">
-        <v>20013</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="25">
+        <v>20011</v>
       </c>
       <c r="C61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="E61" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" s="21">
-        <v>20011</v>
-      </c>
-      <c r="G61" s="21">
+        <v>2</v>
+      </c>
+      <c r="G61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="25">
-        <v>20014</v>
+        <v>20011</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="E62" s="21">
         <v>6</v>
@@ -2579,175 +2607,168 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="29">
-        <v>59</v>
-      </c>
+      <c r="A63" s="29"/>
       <c r="B63" s="27">
-        <v>20015</v>
-      </c>
-      <c r="C63" s="6">
+        <v>20012</v>
+      </c>
+      <c r="C63" s="27">
         <v>2</v>
       </c>
       <c r="D63" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="21">
+        <v>3</v>
+      </c>
+      <c r="F63" s="21">
+        <v>10001</v>
+      </c>
+      <c r="G63" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="29"/>
+      <c r="B64" s="27">
+        <v>20012</v>
+      </c>
+      <c r="C64" s="27">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2</v>
+      </c>
+      <c r="E64" s="21">
+        <v>1</v>
+      </c>
+      <c r="F64" s="21">
         <v>0</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="21">
         <v>1800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29">
-        <v>60</v>
-      </c>
-      <c r="B64" s="27">
-        <v>20015</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2</v>
-      </c>
-      <c r="D64" s="7">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6">
-        <v>3</v>
-      </c>
-      <c r="F64" s="6">
-        <v>10001</v>
-      </c>
-      <c r="G64" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
-        <v>61</v>
-      </c>
-      <c r="B65" s="25">
-        <v>20016</v>
+        <v>60</v>
+      </c>
+      <c r="B65" s="27">
+        <v>20013</v>
       </c>
       <c r="C65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7">
-        <v>8000</v>
-      </c>
-      <c r="E65" s="6">
-        <v>6</v>
-      </c>
-      <c r="F65">
-        <v>20015</v>
-      </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="29">
-        <v>62</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3</v>
+      </c>
+      <c r="F65" s="21">
+        <v>10001</v>
+      </c>
+      <c r="G65" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
       <c r="B66" s="27">
-        <v>20017</v>
+        <v>20013</v>
       </c>
       <c r="C66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E66" s="6">
-        <v>6</v>
-      </c>
-      <c r="F66">
-        <v>20015</v>
-      </c>
-      <c r="G66" s="6">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E66" s="21">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
+        <v>1800</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
+        <v>61</v>
+      </c>
+      <c r="B67" s="25">
+        <v>20014</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3</v>
+      </c>
+      <c r="E67" s="21">
+        <v>3</v>
+      </c>
+      <c r="F67" s="21">
+        <v>10001</v>
+      </c>
+      <c r="G67" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="29"/>
+      <c r="B68" s="27">
+        <v>20014</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="7">
+        <v>7</v>
+      </c>
+      <c r="E68" s="21">
+        <v>1</v>
+      </c>
+      <c r="F68" s="21">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="27">
+        <v>20015</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3</v>
+      </c>
+      <c r="F69" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29">
         <v>63</v>
       </c>
-      <c r="B67" s="27">
-        <v>20018</v>
-      </c>
-      <c r="C67" s="6">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7">
-        <v>3000</v>
-      </c>
-      <c r="E67" s="6">
-        <v>6</v>
-      </c>
-      <c r="F67">
-        <v>20015</v>
-      </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="29">
-        <v>64</v>
-      </c>
-      <c r="B68" s="27">
-        <v>30001</v>
-      </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6">
-        <v>0</v>
-      </c>
-      <c r="G68" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="29">
-        <v>65</v>
-      </c>
-      <c r="B69" s="27">
-        <v>30001</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7">
-        <v>3000</v>
-      </c>
-      <c r="E69" s="6">
-        <v>6</v>
-      </c>
-      <c r="F69" s="6">
-        <v>60002</v>
-      </c>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="29">
-        <v>66</v>
-      </c>
-      <c r="B70" s="27">
-        <v>30002</v>
+      <c r="B70" s="25">
+        <v>20016</v>
       </c>
       <c r="C70" s="6">
         <v>2</v>
       </c>
       <c r="D70" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -2756,67 +2777,65 @@
         <v>0</v>
       </c>
       <c r="G70" s="6">
-        <v>7200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
-        <v>67</v>
-      </c>
-      <c r="B71" s="27">
-        <v>30002</v>
+        <v>64</v>
+      </c>
+      <c r="B71" s="25">
+        <v>20016</v>
       </c>
       <c r="C71" s="6">
         <v>2</v>
       </c>
       <c r="D71" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>20015</v>
       </c>
       <c r="G71" s="6">
-        <v>7500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B72" s="27">
-        <v>30002</v>
+        <v>20017</v>
       </c>
       <c r="C72" s="6">
         <v>2</v>
       </c>
       <c r="D72" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E72" s="6">
-        <v>1</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>20015</v>
       </c>
       <c r="G72" s="6">
-        <v>6400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="29">
-        <v>69</v>
-      </c>
+      <c r="A73" s="29"/>
       <c r="B73" s="27">
-        <v>30002</v>
+        <v>20017</v>
       </c>
       <c r="C73" s="6">
         <v>2</v>
       </c>
       <c r="D73" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -2825,44 +2844,42 @@
         <v>0</v>
       </c>
       <c r="G73" s="6">
-        <v>6900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B74" s="27">
-        <v>30003</v>
+        <v>20018</v>
       </c>
       <c r="C74" s="6">
         <v>2</v>
       </c>
       <c r="D74" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E74" s="6">
-        <v>1</v>
-      </c>
-      <c r="F74" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>20015</v>
       </c>
       <c r="G74" s="6">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="29">
-        <v>71</v>
-      </c>
+      <c r="A75" s="29"/>
       <c r="B75" s="27">
-        <v>30003</v>
+        <v>20018</v>
       </c>
       <c r="C75" s="6">
         <v>2</v>
       </c>
       <c r="D75" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
@@ -2871,21 +2888,19 @@
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="29">
-        <v>72</v>
-      </c>
+      <c r="A76" s="29"/>
       <c r="B76" s="27">
-        <v>40001</v>
+        <v>20019</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
@@ -2899,10 +2914,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B77" s="27">
-        <v>40001</v>
+        <v>30001</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
@@ -2911,496 +2926,666 @@
         <v>5000</v>
       </c>
       <c r="E77" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77" s="6">
         <v>0</v>
       </c>
       <c r="G77" s="6">
-        <v>1</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
+      <c r="A78" s="29">
+        <v>68</v>
+      </c>
+      <c r="B78" s="27">
+        <v>30001</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E78" s="6">
+        <v>6</v>
+      </c>
+      <c r="F78" s="6">
+        <v>60002</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="A79" s="29">
+        <v>69</v>
+      </c>
+      <c r="B79" s="27">
+        <v>30002</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>2700</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96"/>
+      <c r="A80" s="29">
+        <v>70</v>
+      </c>
+      <c r="B80" s="27">
+        <v>30003</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="29">
+        <v>71</v>
+      </c>
+      <c r="B81" s="27">
+        <v>40001</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="29">
+        <v>72</v>
+      </c>
+      <c r="B82" s="27">
+        <v>40001</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E82" s="6">
+        <v>4</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="29">
+        <v>73</v>
+      </c>
+      <c r="B83" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>20001</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="29">
+        <v>74</v>
+      </c>
+      <c r="B84" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>20002</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="29">
+        <v>75</v>
+      </c>
+      <c r="B85" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>20003</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="29">
+        <v>76</v>
+      </c>
+      <c r="B86" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>20004</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="29">
+        <v>77</v>
+      </c>
+      <c r="B87" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>20005</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="29">
+        <v>78</v>
+      </c>
+      <c r="B88" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>20006</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="29">
+        <v>79</v>
+      </c>
+      <c r="B89" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C89" s="6">
+        <v>2</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>30001</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="29">
+        <v>80</v>
+      </c>
+      <c r="B90" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>30002</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="29">
+        <v>81</v>
+      </c>
+      <c r="B91" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>30003</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="29">
+        <v>82</v>
+      </c>
+      <c r="B92" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>30004</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="29">
+        <v>83</v>
+      </c>
+      <c r="B93" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C93" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>30005</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="29">
+        <v>84</v>
+      </c>
+      <c r="B94" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>30006</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="29">
+        <v>85</v>
+      </c>
+      <c r="B95" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>30007</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="29">
+        <v>86</v>
+      </c>
+      <c r="B96" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>30008</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97"/>
+      <c r="A97" s="29">
+        <v>87</v>
+      </c>
+      <c r="B97" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>40001</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98"/>
+      <c r="A98" s="29">
+        <v>88</v>
+      </c>
+      <c r="B98" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>40002</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99"/>
+      <c r="A99" s="29">
+        <v>89</v>
+      </c>
+      <c r="B99" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>40003</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100"/>
+      <c r="A100" s="29">
+        <v>90</v>
+      </c>
+      <c r="B100" s="27">
+        <v>60002</v>
+      </c>
+      <c r="C100" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>40004</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101"/>
+      <c r="A101" s="29">
+        <v>91</v>
+      </c>
+      <c r="B101" s="27">
+        <v>30004</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102"/>
+      <c r="A102" s="29">
+        <v>92</v>
+      </c>
+      <c r="B102" s="27">
+        <v>30005</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0</v>
+      </c>
+      <c r="G102" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
-      <c r="B103" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C103" s="6">
-        <v>2</v>
-      </c>
-      <c r="D103" s="7">
-        <v>1</v>
-      </c>
-      <c r="E103" s="6">
-        <v>3</v>
-      </c>
-      <c r="F103">
-        <v>20001</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104"/>
-      <c r="B104" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C104" s="6">
-        <v>2</v>
-      </c>
-      <c r="D104" s="7">
-        <v>1</v>
-      </c>
-      <c r="E104" s="6">
-        <v>3</v>
-      </c>
-      <c r="F104">
-        <v>20002</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105"/>
-      <c r="B105" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C105" s="6">
-        <v>2</v>
-      </c>
-      <c r="D105" s="7">
-        <v>1</v>
-      </c>
-      <c r="E105" s="6">
-        <v>3</v>
-      </c>
-      <c r="F105">
-        <v>20003</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
-      <c r="B106" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C106" s="6">
-        <v>2</v>
-      </c>
-      <c r="D106" s="7">
-        <v>1</v>
-      </c>
-      <c r="E106" s="6">
-        <v>3</v>
-      </c>
-      <c r="F106">
-        <v>20004</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
-      <c r="B107" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C107" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" s="7">
-        <v>1</v>
-      </c>
-      <c r="E107" s="6">
-        <v>3</v>
-      </c>
-      <c r="F107">
-        <v>20005</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
-      <c r="B108" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C108" s="6">
-        <v>2</v>
-      </c>
-      <c r="D108" s="7">
-        <v>1</v>
-      </c>
-      <c r="E108" s="6">
-        <v>3</v>
-      </c>
-      <c r="F108">
-        <v>20006</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
-      <c r="B109" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C109" s="6">
-        <v>2</v>
-      </c>
-      <c r="D109" s="7">
-        <v>1</v>
-      </c>
-      <c r="E109" s="6">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>30001</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
-      <c r="B110" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C110" s="6">
-        <v>2</v>
-      </c>
-      <c r="D110" s="7">
-        <v>1</v>
-      </c>
-      <c r="E110" s="6">
-        <v>3</v>
-      </c>
-      <c r="F110">
-        <v>30002</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
-      <c r="B111" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C111" s="6">
-        <v>2</v>
-      </c>
-      <c r="D111" s="7">
-        <v>1</v>
-      </c>
-      <c r="E111" s="6">
-        <v>3</v>
-      </c>
-      <c r="F111">
-        <v>30003</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
-      <c r="B112" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C112" s="6">
-        <v>2</v>
-      </c>
-      <c r="D112" s="7">
-        <v>1</v>
-      </c>
-      <c r="E112" s="6">
-        <v>3</v>
-      </c>
-      <c r="F112">
-        <v>30004</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113"/>
-      <c r="B113" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C113" s="6">
-        <v>2</v>
-      </c>
-      <c r="D113" s="7">
-        <v>1</v>
-      </c>
-      <c r="E113" s="6">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>30005</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114"/>
-      <c r="B114" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C114" s="6">
-        <v>2</v>
-      </c>
-      <c r="D114" s="7">
-        <v>1</v>
-      </c>
-      <c r="E114" s="6">
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <v>30006</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115"/>
-      <c r="B115" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C115" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" s="7">
-        <v>1</v>
-      </c>
-      <c r="E115" s="6">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>30007</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116"/>
-      <c r="B116" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C116" s="6">
-        <v>2</v>
-      </c>
-      <c r="D116" s="7">
-        <v>1</v>
-      </c>
-      <c r="E116" s="6">
-        <v>3</v>
-      </c>
-      <c r="F116">
-        <v>30008</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117"/>
-      <c r="B117" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C117" s="6">
-        <v>2</v>
-      </c>
-      <c r="D117" s="7">
-        <v>1</v>
-      </c>
-      <c r="E117" s="6">
-        <v>3</v>
-      </c>
-      <c r="F117">
-        <v>40001</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118"/>
-      <c r="B118" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C118" s="6">
-        <v>2</v>
-      </c>
-      <c r="D118" s="7">
-        <v>1</v>
-      </c>
-      <c r="E118" s="6">
-        <v>3</v>
-      </c>
-      <c r="F118">
-        <v>40002</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119"/>
-      <c r="B119" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C119" s="6">
-        <v>2</v>
-      </c>
-      <c r="D119" s="7">
-        <v>1</v>
-      </c>
-      <c r="E119" s="6">
-        <v>3</v>
-      </c>
-      <c r="F119">
-        <v>40003</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120"/>
-      <c r="B120" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C120" s="6">
-        <v>2</v>
-      </c>
-      <c r="D120" s="7">
-        <v>1</v>
-      </c>
-      <c r="E120" s="6">
-        <v>3</v>
-      </c>
-      <c r="F120">
-        <v>40004</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -3930,6 +4115,33 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -945,10 +945,10 @@
   <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>8</v>
       </c>
       <c r="B12" s="16">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>9</v>
       </c>
       <c r="B13" s="16">
@@ -1446,7 +1446,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="29">
+        <v>14</v>
+      </c>
       <c r="B18" s="19">
         <v>60001</v>
       </c>
@@ -1469,8 +1471,8 @@
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
-        <v>14</v>
+      <c r="A19" s="28">
+        <v>15</v>
       </c>
       <c r="B19" s="19">
         <v>60001</v>
@@ -1498,7 +1500,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>16</v>
       </c>
       <c r="B20" s="6">
@@ -1666,7 +1668,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>22</v>
       </c>
       <c r="B26" s="6">
@@ -1695,7 +1697,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>23</v>
       </c>
       <c r="B27" s="6">
@@ -1754,7 +1756,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6">
         <v>20002</v>
@@ -1783,7 +1785,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6">
         <v>20002</v>
@@ -1812,7 +1814,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="6">
         <v>20002</v>
@@ -1841,7 +1843,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6">
         <v>20002</v>
@@ -1869,8 +1871,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
-        <v>30</v>
+      <c r="A33" s="28">
+        <v>29</v>
       </c>
       <c r="B33" s="6">
         <v>20002</v>
@@ -1898,8 +1900,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
-        <v>31</v>
+      <c r="A34" s="28">
+        <v>30</v>
       </c>
       <c r="B34" s="6">
         <v>20002</v>
@@ -1928,7 +1930,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6">
         <v>20002</v>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6">
         <v>20002</v>
@@ -1986,7 +1988,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="6">
         <v>20002</v>
@@ -2015,7 +2017,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6">
         <v>20002</v>
@@ -2044,7 +2046,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="6">
         <v>20003</v>
@@ -2072,8 +2074,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
-        <v>38</v>
+      <c r="A40" s="28">
+        <v>36</v>
       </c>
       <c r="B40" s="6">
         <v>20003</v>
@@ -2101,8 +2103,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
-        <v>39</v>
+      <c r="A41" s="28">
+        <v>37</v>
       </c>
       <c r="B41" s="6">
         <v>20003</v>
@@ -2131,7 +2133,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="6">
         <v>20003</v>
@@ -2154,7 +2156,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6">
         <v>20003</v>
@@ -2177,7 +2179,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="6">
         <v>20003</v>
@@ -2200,7 +2202,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="6">
         <v>20003</v>
@@ -2223,7 +2225,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="6">
         <v>20003</v>
@@ -2245,8 +2247,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
-        <v>45</v>
+      <c r="A47" s="28">
+        <v>43</v>
       </c>
       <c r="B47" s="8">
         <v>20004</v>
@@ -2268,8 +2270,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
-        <v>46</v>
+      <c r="A48" s="28">
+        <v>44</v>
       </c>
       <c r="B48" s="32">
         <v>20004</v>
@@ -2292,7 +2294,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="12">
         <v>20005</v>
@@ -2315,7 +2317,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="12">
         <v>20005</v>
@@ -2338,7 +2340,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="29">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
         <v>20006</v>
@@ -2361,7 +2363,7 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="32">
         <v>20006</v>
@@ -2384,7 +2386,7 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="12">
         <v>20007</v>
@@ -2406,7 +2408,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28">
+        <v>50</v>
+      </c>
       <c r="B54" s="32">
         <v>20007</v>
       </c>
@@ -2427,8 +2431,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
-        <v>52</v>
+      <c r="A55" s="28">
+        <v>51</v>
       </c>
       <c r="B55" s="8">
         <v>20008</v>
@@ -2450,7 +2454,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="29">
+        <v>52</v>
+      </c>
       <c r="B56" s="8">
         <v>20008</v>
       </c>
@@ -2494,7 +2500,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="29">
+        <v>54</v>
+      </c>
       <c r="B58" s="12">
         <v>20009</v>
       </c>
@@ -2561,8 +2569,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29">
-        <v>58</v>
+      <c r="A61" s="28">
+        <v>57</v>
       </c>
       <c r="B61" s="25">
         <v>20011</v>
@@ -2584,8 +2592,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="29">
-        <v>59</v>
+      <c r="A62" s="28">
+        <v>58</v>
       </c>
       <c r="B62" s="25">
         <v>20011</v>
@@ -2607,7 +2615,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="29">
+        <v>59</v>
+      </c>
       <c r="B63" s="27">
         <v>20012</v>
       </c>
@@ -2628,7 +2638,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
+      <c r="A64" s="29">
+        <v>60</v>
+      </c>
       <c r="B64" s="27">
         <v>20012</v>
       </c>
@@ -2650,7 +2662,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="27">
         <v>20013</v>
@@ -2672,7 +2684,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
+      <c r="A66" s="29">
+        <v>62</v>
+      </c>
       <c r="B66" s="27">
         <v>20013</v>
       </c>
@@ -2694,7 +2708,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B67" s="25">
         <v>20014</v>
@@ -2716,7 +2730,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28">
+        <v>64</v>
+      </c>
       <c r="B68" s="27">
         <v>20014</v>
       </c>
@@ -2737,7 +2753,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="A69" s="28">
+        <v>65</v>
+      </c>
       <c r="B69" s="27">
         <v>20015</v>
       </c>
@@ -2759,7 +2777,7 @@
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B70" s="25">
         <v>20016</v>
@@ -2782,7 +2800,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B71" s="25">
         <v>20016</v>
@@ -2805,7 +2823,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B72" s="27">
         <v>20017</v>
@@ -2827,7 +2845,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
+      <c r="A73" s="29">
+        <v>69</v>
+      </c>
       <c r="B73" s="27">
         <v>20017</v>
       </c>
@@ -2849,7 +2869,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B74" s="27">
         <v>20018</v>
@@ -2871,7 +2891,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
+      <c r="A75" s="28">
+        <v>71</v>
+      </c>
       <c r="B75" s="27">
         <v>20018</v>
       </c>
@@ -2892,7 +2914,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
+      <c r="A76" s="28">
+        <v>72</v>
+      </c>
       <c r="B76" s="27">
         <v>20019</v>
       </c>
@@ -2914,7 +2938,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B77" s="27">
         <v>30001</v>
@@ -2937,7 +2961,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B78" s="27">
         <v>30001</v>
@@ -2960,7 +2984,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B79" s="27">
         <v>30002</v>
@@ -2983,7 +3007,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B80" s="27">
         <v>30003</v>
@@ -3006,7 +3030,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B81" s="27">
         <v>40001</v>
@@ -3028,8 +3052,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="29">
-        <v>72</v>
+      <c r="A82" s="28">
+        <v>78</v>
       </c>
       <c r="B82" s="27">
         <v>40001</v>
@@ -3051,8 +3075,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="29">
-        <v>73</v>
+      <c r="A83" s="28">
+        <v>79</v>
       </c>
       <c r="B83" s="27">
         <v>60002</v>
@@ -3075,7 +3099,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B84" s="27">
         <v>60002</v>
@@ -3098,7 +3122,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B85" s="27">
         <v>60002</v>
@@ -3121,7 +3145,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="29">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B86" s="27">
         <v>60002</v>
@@ -3144,7 +3168,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B87" s="27">
         <v>60002</v>
@@ -3167,7 +3191,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="29">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B88" s="27">
         <v>60002</v>
@@ -3189,8 +3213,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="29">
-        <v>79</v>
+      <c r="A89" s="28">
+        <v>85</v>
       </c>
       <c r="B89" s="27">
         <v>60002</v>
@@ -3212,8 +3236,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="29">
-        <v>80</v>
+      <c r="A90" s="28">
+        <v>86</v>
       </c>
       <c r="B90" s="27">
         <v>60002</v>
@@ -3236,7 +3260,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B91" s="27">
         <v>60002</v>
@@ -3259,7 +3283,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B92" s="27">
         <v>60002</v>
@@ -3282,7 +3306,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B93" s="27">
         <v>60002</v>
@@ -3305,7 +3329,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B94" s="27">
         <v>60002</v>
@@ -3328,7 +3352,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B95" s="27">
         <v>60002</v>
@@ -3350,8 +3374,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="29">
-        <v>86</v>
+      <c r="A96" s="28">
+        <v>92</v>
       </c>
       <c r="B96" s="27">
         <v>60002</v>
@@ -3373,8 +3397,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="29">
-        <v>87</v>
+      <c r="A97" s="28">
+        <v>93</v>
       </c>
       <c r="B97" s="27">
         <v>60002</v>
@@ -3397,7 +3421,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B98" s="27">
         <v>60002</v>
@@ -3420,7 +3444,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B99" s="27">
         <v>60002</v>
@@ -3443,7 +3467,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B100" s="27">
         <v>60002</v>
@@ -3466,7 +3490,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B101" s="27">
         <v>30004</v>
@@ -3489,7 +3513,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B102" s="27">
         <v>30005</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -945,10 +945,10 @@
   <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2944,10 +2944,10 @@
         <v>30001</v>
       </c>
       <c r="C77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -2967,10 +2967,10 @@
         <v>30001</v>
       </c>
       <c r="C78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="7">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="E78" s="6">
         <v>6</v>
@@ -3036,10 +3036,10 @@
         <v>40001</v>
       </c>
       <c r="C81" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="7">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -3059,10 +3059,10 @@
         <v>40001</v>
       </c>
       <c r="C82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="7">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="E82" s="6">
         <v>4</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -945,10 +945,10 @@
   <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2329,7 +2329,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F50" s="12">
         <v>0</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -260,19 +260,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡临幸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主位卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>50%金币或临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20001或70%金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20002或70%金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20003或70%金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主位卡50%金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%主位卡20%金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%主位卡70%金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>80%临幸20%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%金币或临幸</t>
+    <t>临幸主位卡各50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,45 +337,6 @@
       </rPr>
       <t>金币</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡临幸主位各50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30%概率得20001或70%金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30%概率得20002或70%金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30%概率得20003或70%金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主位卡50%金币</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80%主位卡20%金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30%主位卡70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,52 +436,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,27 +485,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -569,12 +508,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -587,9 +523,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +533,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J313"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57:G58"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1007,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="6">
@@ -1083,12 +1031,12 @@
       <c r="I5">
         <v>20001</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="6">
@@ -1112,72 +1060,72 @@
       <c r="I6">
         <v>20002</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="21">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23">
         <v>13001</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
         <v>10000</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="25">
         <v>3600</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="25"/>
       <c r="I7">
         <v>20003</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="23">
         <v>13001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="23">
         <v>1</v>
       </c>
       <c r="D8" s="30">
         <v>2000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="23">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="23">
         <v>60001</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="23">
         <v>0</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="25"/>
       <c r="I8">
         <v>20004</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
       <c r="B9" s="6">
@@ -1201,306 +1149,306 @@
       <c r="I9">
         <v>20005</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="23">
         <v>15001</v>
       </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24">
         <v>10000</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="25">
         <v>600</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="25"/>
       <c r="I10">
         <v>20006</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="23">
         <v>15001</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
         <v>2000</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="23">
         <v>6</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="23">
         <v>60001</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="23">
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="25"/>
       <c r="I11">
         <v>30001</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="9">
         <v>16001</v>
       </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
         <v>10000</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="8">
         <v>1800</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="8"/>
       <c r="I12">
         <v>30002</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="9">
         <v>16001</v>
       </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
         <v>2000</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="9">
         <v>6</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="9">
         <v>60001</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="8"/>
       <c r="I13">
         <v>30003</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="12">
         <v>60001</v>
       </c>
-      <c r="C14" s="19">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
         <v>20</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="11">
         <v>5</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="12">
         <v>0</v>
       </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18"/>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="I14">
         <v>30004</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="21">
         <v>11</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="12">
         <v>60001</v>
       </c>
-      <c r="C15" s="19">
-        <v>2</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13">
         <v>20</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="11">
         <v>5</v>
       </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18"/>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15">
         <v>30005</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="21">
         <v>12</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="12">
         <v>60001</v>
       </c>
-      <c r="C16" s="19">
-        <v>2</v>
-      </c>
-      <c r="D16" s="31">
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="22">
         <v>20</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="11">
         <v>5</v>
       </c>
-      <c r="F16" s="19">
-        <v>2</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18"/>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16">
         <v>30006</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="12">
         <v>60001</v>
       </c>
-      <c r="C17" s="19">
-        <v>2</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22">
         <v>20</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>5</v>
       </c>
-      <c r="F17" s="19">
-        <v>3</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18"/>
+      <c r="F17" s="12">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17">
         <v>30007</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="12">
         <v>60001</v>
       </c>
-      <c r="C18" s="19">
-        <v>2</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
         <v>20</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="11">
         <v>5</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="J18" s="24"/>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="12">
         <v>60001</v>
       </c>
-      <c r="C19" s="19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
         <v>20</v>
       </c>
-      <c r="E19" s="18">
-        <v>3</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="E19" s="11">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12">
         <v>10001</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="I19">
         <v>30008</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="20">
         <v>16</v>
       </c>
       <c r="B20" s="6">
@@ -1512,10 +1460,10 @@
       <c r="D20" s="7">
         <v>10</v>
       </c>
-      <c r="E20" s="21">
-        <v>2</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14">
         <v>0</v>
       </c>
       <c r="G20">
@@ -1524,12 +1472,12 @@
       <c r="I20">
         <v>40002</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="21">
         <v>17</v>
       </c>
       <c r="B21" s="6">
@@ -1541,10 +1489,10 @@
       <c r="D21" s="7">
         <v>10</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="14">
         <v>5</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="14">
         <v>2</v>
       </c>
       <c r="G21">
@@ -1553,12 +1501,12 @@
       <c r="I21">
         <v>40003</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="21">
         <v>18</v>
       </c>
       <c r="B22" s="6">
@@ -1570,10 +1518,10 @@
       <c r="D22" s="7">
         <v>10</v>
       </c>
-      <c r="E22" s="21">
-        <v>3</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="E22" s="14">
+        <v>3</v>
+      </c>
+      <c r="F22" s="14">
         <v>20001</v>
       </c>
       <c r="G22" s="6">
@@ -1582,12 +1530,12 @@
       <c r="I22">
         <v>40004</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="21">
         <v>19</v>
       </c>
       <c r="B23" s="6">
@@ -1599,7 +1547,7 @@
       <c r="D23" s="7">
         <v>10</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="14">
         <v>3</v>
       </c>
       <c r="F23">
@@ -1610,7 +1558,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="21">
         <v>20</v>
       </c>
       <c r="B24" s="6">
@@ -1622,7 +1570,7 @@
       <c r="D24" s="7">
         <v>10</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="14">
         <v>3</v>
       </c>
       <c r="F24">
@@ -1639,7 +1587,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="21">
         <v>21</v>
       </c>
       <c r="B25" s="6">
@@ -1651,7 +1599,7 @@
       <c r="D25" s="7">
         <v>10</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="14">
         <v>3</v>
       </c>
       <c r="F25">
@@ -1668,7 +1616,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="20">
         <v>22</v>
       </c>
       <c r="B26" s="6">
@@ -1680,7 +1628,7 @@
       <c r="D26" s="7">
         <v>10</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="14">
         <v>3</v>
       </c>
       <c r="F26">
@@ -1697,7 +1645,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
       <c r="B27" s="6">
@@ -1709,7 +1657,7 @@
       <c r="D27" s="7">
         <v>10</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="14">
         <v>3</v>
       </c>
       <c r="F27">
@@ -1721,12 +1669,12 @@
       <c r="I27">
         <v>20004</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="21">
         <v>24</v>
       </c>
       <c r="B28" s="6">
@@ -1738,7 +1686,7 @@
       <c r="D28" s="7">
         <v>10</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="14">
         <v>3</v>
       </c>
       <c r="F28">
@@ -1750,12 +1698,12 @@
       <c r="I28">
         <v>20005</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="21">
         <v>25</v>
       </c>
       <c r="B29" s="6">
@@ -1767,10 +1715,10 @@
       <c r="D29" s="7">
         <v>10</v>
       </c>
-      <c r="E29" s="21">
-        <v>2</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+      <c r="F29" s="14">
         <v>0</v>
       </c>
       <c r="G29">
@@ -1779,12 +1727,12 @@
       <c r="I29">
         <v>20006</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="21">
         <v>26</v>
       </c>
       <c r="B30" s="6">
@@ -1796,10 +1744,10 @@
       <c r="D30" s="7">
         <v>10</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="14">
         <v>5</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="14">
         <v>2</v>
       </c>
       <c r="G30">
@@ -1808,12 +1756,12 @@
       <c r="I30">
         <v>20007</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>69</v>
+      <c r="J30" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="21">
         <v>27</v>
       </c>
       <c r="B31" s="6">
@@ -1825,7 +1773,7 @@
       <c r="D31" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="14">
         <v>3</v>
       </c>
       <c r="F31">
@@ -1837,12 +1785,12 @@
       <c r="I31">
         <v>20008</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>70</v>
+      <c r="J31" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="21">
         <v>28</v>
       </c>
       <c r="B32" s="6">
@@ -1854,7 +1802,7 @@
       <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="14">
         <v>3</v>
       </c>
       <c r="F32">
@@ -1866,12 +1814,12 @@
       <c r="I32">
         <v>20009</v>
       </c>
-      <c r="J32" s="26" t="s">
-        <v>71</v>
+      <c r="J32" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="A33" s="20">
         <v>29</v>
       </c>
       <c r="B33" s="6">
@@ -1883,7 +1831,7 @@
       <c r="D33" s="7">
         <v>10</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="14">
         <v>3</v>
       </c>
       <c r="F33">
@@ -1896,11 +1844,11 @@
         <v>20010</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="20">
         <v>30</v>
       </c>
       <c r="B34" s="6">
@@ -1912,7 +1860,7 @@
       <c r="D34" s="7">
         <v>10</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="14">
         <v>3</v>
       </c>
       <c r="F34">
@@ -1925,11 +1873,11 @@
         <v>20011</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="21">
         <v>31</v>
       </c>
       <c r="B35" s="6">
@@ -1941,7 +1889,7 @@
       <c r="D35" s="7">
         <v>10</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="14">
         <v>3</v>
       </c>
       <c r="F35">
@@ -1954,11 +1902,11 @@
         <v>20012</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="21">
         <v>32</v>
       </c>
       <c r="B36" s="6">
@@ -1970,7 +1918,7 @@
       <c r="D36" s="7">
         <v>10</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="14">
         <v>3</v>
       </c>
       <c r="F36">
@@ -1983,11 +1931,11 @@
         <v>20013</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="21">
         <v>33</v>
       </c>
       <c r="B37" s="6">
@@ -1999,7 +1947,7 @@
       <c r="D37" s="7">
         <v>10</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="14">
         <v>3</v>
       </c>
       <c r="F37">
@@ -2012,11 +1960,11 @@
         <v>20014</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="21">
         <v>34</v>
       </c>
       <c r="B38" s="6">
@@ -2028,7 +1976,7 @@
       <c r="D38" s="7">
         <v>10</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="14">
         <v>3</v>
       </c>
       <c r="F38">
@@ -2041,11 +1989,11 @@
         <v>20015</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="21">
         <v>35</v>
       </c>
       <c r="B39" s="6">
@@ -2057,10 +2005,10 @@
       <c r="D39" s="7">
         <v>10</v>
       </c>
-      <c r="E39" s="21">
-        <v>2</v>
-      </c>
-      <c r="F39" s="21">
+      <c r="E39" s="14">
+        <v>2</v>
+      </c>
+      <c r="F39" s="14">
         <v>0</v>
       </c>
       <c r="G39">
@@ -2070,11 +2018,11 @@
         <v>20016</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="20">
         <v>36</v>
       </c>
       <c r="B40" s="6">
@@ -2086,10 +2034,10 @@
       <c r="D40" s="7">
         <v>10</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="14">
         <v>5</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="14">
         <v>2</v>
       </c>
       <c r="G40">
@@ -2099,11 +2047,11 @@
         <v>20017</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="20">
         <v>37</v>
       </c>
       <c r="B41" s="6">
@@ -2115,7 +2063,7 @@
       <c r="D41" s="7">
         <v>10</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="14">
         <v>3</v>
       </c>
       <c r="F41">
@@ -2128,11 +2076,11 @@
         <v>20018</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="A42" s="21">
         <v>38</v>
       </c>
       <c r="B42" s="6">
@@ -2144,7 +2092,7 @@
       <c r="D42" s="7">
         <v>10</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="14">
         <v>3</v>
       </c>
       <c r="F42">
@@ -2155,7 +2103,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
+      <c r="A43" s="21">
         <v>39</v>
       </c>
       <c r="B43" s="6">
@@ -2167,7 +2115,7 @@
       <c r="D43" s="7">
         <v>10</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="14">
         <v>3</v>
       </c>
       <c r="F43">
@@ -2178,7 +2126,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+      <c r="A44" s="21">
         <v>40</v>
       </c>
       <c r="B44" s="6">
@@ -2190,7 +2138,7 @@
       <c r="D44" s="7">
         <v>10</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="14">
         <v>3</v>
       </c>
       <c r="F44">
@@ -2201,7 +2149,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="A45" s="21">
         <v>41</v>
       </c>
       <c r="B45" s="6">
@@ -2213,7 +2161,7 @@
       <c r="D45" s="7">
         <v>10</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="14">
         <v>3</v>
       </c>
       <c r="F45">
@@ -2223,8 +2171,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
         <v>42</v>
       </c>
       <c r="B46" s="6">
@@ -2236,7 +2184,7 @@
       <c r="D46" s="7">
         <v>10</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="14">
         <v>3</v>
       </c>
       <c r="F46">
@@ -2247,661 +2195,677 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="A47" s="20">
         <v>43</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="23">
         <v>20004</v>
       </c>
-      <c r="C47" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" s="9">
+      <c r="C47" s="23">
+        <v>2</v>
+      </c>
+      <c r="D47" s="24">
         <v>50</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="25">
         <v>6</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="25">
         <v>20001</v>
       </c>
-      <c r="G47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
         <v>44</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="23">
         <v>20004</v>
       </c>
-      <c r="C48" s="32">
-        <v>2</v>
-      </c>
-      <c r="D48" s="33">
+      <c r="C48" s="23">
+        <v>2</v>
+      </c>
+      <c r="D48" s="24">
         <v>50</v>
       </c>
-      <c r="E48" s="34">
-        <v>1</v>
-      </c>
-      <c r="F48" s="34">
+      <c r="E48" s="25">
+        <v>1</v>
+      </c>
+      <c r="F48" s="25">
         <v>0</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="25">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
         <v>45</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="23">
         <v>20005</v>
       </c>
-      <c r="C49" s="8">
-        <v>2</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="C49" s="23">
+        <v>2</v>
+      </c>
+      <c r="D49" s="24">
         <v>50</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="23">
         <v>6</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="23">
         <v>20002</v>
       </c>
-      <c r="G49" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="G49" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
         <v>46</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="23">
         <v>20005</v>
       </c>
-      <c r="C50" s="32">
-        <v>2</v>
-      </c>
-      <c r="D50" s="33">
+      <c r="C50" s="23">
+        <v>2</v>
+      </c>
+      <c r="D50" s="24">
         <v>50</v>
       </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E50" s="23">
+        <v>1</v>
+      </c>
+      <c r="F50" s="23">
         <v>0</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="23">
         <v>1800</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
         <v>47</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="19">
         <v>20006</v>
       </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C51" s="19">
+        <v>2</v>
+      </c>
+      <c r="D51" s="26">
         <v>50</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="14">
         <v>6</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="14">
         <v>20003</v>
       </c>
-      <c r="G51" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
         <v>48</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="23">
         <v>20006</v>
       </c>
-      <c r="C52" s="32">
-        <v>2</v>
-      </c>
-      <c r="D52" s="33">
+      <c r="C52" s="23">
+        <v>2</v>
+      </c>
+      <c r="D52" s="24">
         <v>50</v>
       </c>
-      <c r="E52" s="34">
-        <v>1</v>
-      </c>
-      <c r="F52" s="34">
+      <c r="E52" s="25">
+        <v>1</v>
+      </c>
+      <c r="F52" s="25">
         <v>0</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="25">
         <v>1800</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
         <v>49</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="23">
         <v>20007</v>
       </c>
-      <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="9">
+      <c r="C53" s="23">
+        <v>2</v>
+      </c>
+      <c r="D53" s="24">
         <v>30</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="25">
         <v>6</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="25">
         <v>20001</v>
       </c>
-      <c r="G53" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="G53" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="20">
         <v>50</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="23">
         <v>20007</v>
       </c>
-      <c r="C54" s="32">
-        <v>2</v>
-      </c>
-      <c r="D54" s="33">
+      <c r="C54" s="23">
+        <v>2</v>
+      </c>
+      <c r="D54" s="24">
         <v>70</v>
       </c>
-      <c r="E54" s="34">
-        <v>1</v>
-      </c>
-      <c r="F54" s="34">
+      <c r="E54" s="25">
+        <v>1</v>
+      </c>
+      <c r="F54" s="25">
         <v>0</v>
       </c>
-      <c r="G54" s="34">
+      <c r="G54" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="20">
         <v>51</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="23">
         <v>20008</v>
       </c>
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="C55" s="23">
+        <v>2</v>
+      </c>
+      <c r="D55" s="24">
         <v>30</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="23">
         <v>6</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="23">
         <v>20002</v>
       </c>
-      <c r="G55" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
         <v>52</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="23">
         <v>20008</v>
       </c>
-      <c r="C56" s="32">
-        <v>2</v>
-      </c>
-      <c r="D56" s="33">
+      <c r="C56" s="23">
+        <v>2</v>
+      </c>
+      <c r="D56" s="24">
         <v>70</v>
       </c>
-      <c r="E56" s="34">
-        <v>1</v>
-      </c>
-      <c r="F56" s="34">
+      <c r="E56" s="25">
+        <v>1</v>
+      </c>
+      <c r="F56" s="25">
         <v>0</v>
       </c>
-      <c r="G56" s="34">
+      <c r="G56" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="21">
         <v>53</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="19">
         <v>20009</v>
       </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="C57" s="19">
+        <v>2</v>
+      </c>
+      <c r="D57" s="26">
         <v>30</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="14">
         <v>6</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="14">
         <v>20003</v>
       </c>
-      <c r="G57" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
+      <c r="G57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="21">
         <v>54</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="23">
         <v>20009</v>
       </c>
-      <c r="C58" s="32">
-        <v>2</v>
-      </c>
-      <c r="D58" s="33">
+      <c r="C58" s="23">
+        <v>2</v>
+      </c>
+      <c r="D58" s="24">
         <v>70</v>
       </c>
-      <c r="E58" s="34">
-        <v>1</v>
-      </c>
-      <c r="F58" s="34">
+      <c r="E58" s="25">
+        <v>1</v>
+      </c>
+      <c r="F58" s="25">
         <v>0</v>
       </c>
-      <c r="G58" s="34">
+      <c r="G58" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="21">
         <v>55</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="19">
         <v>20010</v>
       </c>
-      <c r="C59" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="C59" s="27">
+        <v>2</v>
+      </c>
+      <c r="D59" s="28">
         <v>10</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>5</v>
       </c>
-      <c r="F59" s="21">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29">
+      <c r="F59" s="19">
+        <v>2</v>
+      </c>
+      <c r="G59" s="29">
+        <v>1</v>
+      </c>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="21">
         <v>56</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="19">
         <v>20010</v>
       </c>
-      <c r="C60" s="6">
-        <v>2</v>
-      </c>
-      <c r="D60" s="7">
+      <c r="C60" s="27">
+        <v>2</v>
+      </c>
+      <c r="D60" s="28">
         <v>10</v>
       </c>
-      <c r="E60" s="21">
-        <v>3</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="19">
+        <v>3</v>
+      </c>
+      <c r="F60" s="29">
         <v>10001</v>
       </c>
-      <c r="G60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
+      <c r="G60" s="27">
+        <v>1</v>
+      </c>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
         <v>57</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="19">
         <v>20011</v>
       </c>
-      <c r="C61" s="6">
-        <v>2</v>
-      </c>
-      <c r="D61" s="7">
-        <v>10</v>
-      </c>
-      <c r="E61" s="21">
+      <c r="C61" s="27">
+        <v>1</v>
+      </c>
+      <c r="D61" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="19">
         <v>5</v>
       </c>
-      <c r="F61" s="21">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
-        <v>58</v>
-      </c>
-      <c r="B62" s="25">
-        <v>20011</v>
-      </c>
-      <c r="C62" s="6">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7">
-        <v>8000</v>
-      </c>
-      <c r="E62" s="21">
-        <v>6</v>
-      </c>
-      <c r="F62" s="21">
-        <v>20011</v>
-      </c>
-      <c r="G62" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="29">
+      <c r="F61" s="19">
+        <v>2</v>
+      </c>
+      <c r="G61" s="29">
+        <v>1</v>
+      </c>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="21">
         <v>59</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B62" s="19">
         <v>20012</v>
       </c>
-      <c r="C63" s="27">
-        <v>2</v>
-      </c>
-      <c r="D63" s="7">
+      <c r="C62" s="19">
+        <v>2</v>
+      </c>
+      <c r="D62" s="28">
         <v>8</v>
       </c>
-      <c r="E63" s="21">
-        <v>3</v>
-      </c>
-      <c r="F63" s="21">
+      <c r="E62" s="19">
+        <v>5</v>
+      </c>
+      <c r="F62" s="19">
+        <v>2</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1</v>
+      </c>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="21">
+        <v>60</v>
+      </c>
+      <c r="B63" s="19">
+        <v>20012</v>
+      </c>
+      <c r="C63" s="19">
+        <v>2</v>
+      </c>
+      <c r="D63" s="28">
+        <v>2</v>
+      </c>
+      <c r="E63" s="19">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1800</v>
+      </c>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="21">
+        <v>61</v>
+      </c>
+      <c r="B64" s="19">
+        <v>20013</v>
+      </c>
+      <c r="C64" s="27">
+        <v>2</v>
+      </c>
+      <c r="D64" s="28">
+        <v>5</v>
+      </c>
+      <c r="E64" s="19">
+        <v>5</v>
+      </c>
+      <c r="F64" s="19">
+        <v>2</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1</v>
+      </c>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="21">
+        <v>62</v>
+      </c>
+      <c r="B65" s="19">
+        <v>20013</v>
+      </c>
+      <c r="C65" s="27">
+        <v>2</v>
+      </c>
+      <c r="D65" s="28">
+        <v>5</v>
+      </c>
+      <c r="E65" s="19">
+        <v>1</v>
+      </c>
+      <c r="F65" s="19">
+        <v>0</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1800</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="21">
+        <v>63</v>
+      </c>
+      <c r="B66" s="19">
+        <v>20014</v>
+      </c>
+      <c r="C66" s="27">
+        <v>2</v>
+      </c>
+      <c r="D66" s="28">
+        <v>3</v>
+      </c>
+      <c r="E66" s="19">
+        <v>5</v>
+      </c>
+      <c r="F66" s="19">
+        <v>2</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1</v>
+      </c>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20">
+        <v>64</v>
+      </c>
+      <c r="B67" s="19">
+        <v>20014</v>
+      </c>
+      <c r="C67" s="27">
+        <v>2</v>
+      </c>
+      <c r="D67" s="28">
+        <v>7</v>
+      </c>
+      <c r="E67" s="19">
+        <v>1</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1800</v>
+      </c>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20">
+        <v>65</v>
+      </c>
+      <c r="B68" s="19">
+        <v>20015</v>
+      </c>
+      <c r="C68" s="27">
+        <v>1</v>
+      </c>
+      <c r="D68" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E68" s="27">
+        <v>3</v>
+      </c>
+      <c r="F68" s="27">
         <v>10001</v>
       </c>
-      <c r="G63" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="29">
-        <v>60</v>
-      </c>
-      <c r="B64" s="27">
-        <v>20012</v>
-      </c>
-      <c r="C64" s="27">
-        <v>2</v>
-      </c>
-      <c r="D64" s="7">
-        <v>2</v>
-      </c>
-      <c r="E64" s="21">
-        <v>1</v>
-      </c>
-      <c r="F64" s="21">
+      <c r="G68" s="27">
+        <v>1</v>
+      </c>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="21">
+        <v>66</v>
+      </c>
+      <c r="B69" s="19">
+        <v>20016</v>
+      </c>
+      <c r="C69" s="27">
+        <v>2</v>
+      </c>
+      <c r="D69" s="28">
+        <v>2</v>
+      </c>
+      <c r="E69" s="27">
+        <v>1</v>
+      </c>
+      <c r="F69" s="27">
         <v>0</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G69" s="27">
         <v>1800</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="29">
-        <v>61</v>
-      </c>
-      <c r="B65" s="27">
-        <v>20013</v>
-      </c>
-      <c r="C65" s="6">
-        <v>2</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="21">
+        <v>67</v>
+      </c>
+      <c r="B70" s="19">
+        <v>20016</v>
+      </c>
+      <c r="C70" s="27">
+        <v>2</v>
+      </c>
+      <c r="D70" s="28">
+        <v>8</v>
+      </c>
+      <c r="E70" s="27">
+        <v>3</v>
+      </c>
+      <c r="F70" s="29">
+        <v>10001</v>
+      </c>
+      <c r="G70" s="27">
+        <v>1</v>
+      </c>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="21">
+        <v>68</v>
+      </c>
+      <c r="B71" s="19">
+        <v>20017</v>
+      </c>
+      <c r="C71" s="27">
+        <v>2</v>
+      </c>
+      <c r="D71" s="28">
         <v>5</v>
       </c>
-      <c r="E65" s="21">
-        <v>3</v>
-      </c>
-      <c r="F65" s="21">
+      <c r="E71" s="27">
+        <v>3</v>
+      </c>
+      <c r="F71" s="29">
         <v>10001</v>
       </c>
-      <c r="G65" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29">
-        <v>62</v>
-      </c>
-      <c r="B66" s="27">
-        <v>20013</v>
-      </c>
-      <c r="C66" s="6">
-        <v>2</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="G71" s="27">
+        <v>1</v>
+      </c>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="21">
+        <v>69</v>
+      </c>
+      <c r="B72" s="19">
+        <v>20017</v>
+      </c>
+      <c r="C72" s="27">
+        <v>2</v>
+      </c>
+      <c r="D72" s="28">
         <v>5</v>
       </c>
-      <c r="E66" s="21">
-        <v>1</v>
-      </c>
-      <c r="F66" s="21">
+      <c r="E72" s="27">
+        <v>1</v>
+      </c>
+      <c r="F72" s="27">
         <v>0</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G72" s="27">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="29">
-        <v>63</v>
-      </c>
-      <c r="B67" s="25">
-        <v>20014</v>
-      </c>
-      <c r="C67" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" s="7">
-        <v>3</v>
-      </c>
-      <c r="E67" s="21">
-        <v>3</v>
-      </c>
-      <c r="F67" s="21">
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="21">
+        <v>70</v>
+      </c>
+      <c r="B73" s="19">
+        <v>20018</v>
+      </c>
+      <c r="C73" s="27">
+        <v>2</v>
+      </c>
+      <c r="D73" s="28">
+        <v>3</v>
+      </c>
+      <c r="E73" s="27">
+        <v>3</v>
+      </c>
+      <c r="F73" s="29">
         <v>10001</v>
       </c>
-      <c r="G67" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
-        <v>64</v>
-      </c>
-      <c r="B68" s="27">
-        <v>20014</v>
-      </c>
-      <c r="C68" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" s="7">
+      <c r="G73" s="27">
+        <v>1</v>
+      </c>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
+        <v>71</v>
+      </c>
+      <c r="B74" s="19">
+        <v>20018</v>
+      </c>
+      <c r="C74" s="27">
+        <v>2</v>
+      </c>
+      <c r="D74" s="28">
         <v>7</v>
       </c>
-      <c r="E68" s="21">
-        <v>1</v>
-      </c>
-      <c r="F68" s="21">
+      <c r="E74" s="27">
+        <v>1</v>
+      </c>
+      <c r="F74" s="27">
         <v>0</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G74" s="27">
         <v>1800</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
-        <v>65</v>
-      </c>
-      <c r="B69" s="27">
-        <v>20015</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
+        <v>72</v>
+      </c>
+      <c r="B75" s="19">
+        <v>20019</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
         <v>10000</v>
-      </c>
-      <c r="E69" s="6">
-        <v>3</v>
-      </c>
-      <c r="F69" s="6">
-        <v>10001</v>
-      </c>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29">
-        <v>66</v>
-      </c>
-      <c r="B70" s="25">
-        <v>20016</v>
-      </c>
-      <c r="C70" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" s="7">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="29">
-        <v>67</v>
-      </c>
-      <c r="B71" s="25">
-        <v>20016</v>
-      </c>
-      <c r="C71" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" s="7">
-        <v>8</v>
-      </c>
-      <c r="E71" s="6">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>20015</v>
-      </c>
-      <c r="G71" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="29">
-        <v>68</v>
-      </c>
-      <c r="B72" s="27">
-        <v>20017</v>
-      </c>
-      <c r="C72" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" s="7">
-        <v>5</v>
-      </c>
-      <c r="E72" s="6">
-        <v>6</v>
-      </c>
-      <c r="F72">
-        <v>20015</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="29">
-        <v>69</v>
-      </c>
-      <c r="B73" s="27">
-        <v>20017</v>
-      </c>
-      <c r="C73" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" s="7">
-        <v>5</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>0</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="29">
-        <v>70</v>
-      </c>
-      <c r="B74" s="27">
-        <v>20018</v>
-      </c>
-      <c r="C74" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" s="7">
-        <v>3</v>
-      </c>
-      <c r="E74" s="6">
-        <v>6</v>
-      </c>
-      <c r="F74">
-        <v>20015</v>
-      </c>
-      <c r="G74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
-        <v>71</v>
-      </c>
-      <c r="B75" s="27">
-        <v>20018</v>
-      </c>
-      <c r="C75" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" s="7">
-        <v>7</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
@@ -2913,18 +2877,18 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
-        <v>72</v>
-      </c>
-      <c r="B76" s="27">
-        <v>20019</v>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="21">
+        <v>73</v>
+      </c>
+      <c r="B76" s="19">
+        <v>30001</v>
       </c>
       <c r="C76" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="7">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
@@ -2936,11 +2900,11 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="29">
-        <v>73</v>
-      </c>
-      <c r="B77" s="27">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
+        <v>74</v>
+      </c>
+      <c r="B77" s="19">
         <v>30001</v>
       </c>
       <c r="C77" s="6">
@@ -2950,44 +2914,44 @@
         <v>5</v>
       </c>
       <c r="E77" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F77" s="6">
+        <v>60002</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="21">
+        <v>75</v>
+      </c>
+      <c r="B78" s="19">
+        <v>30002</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6">
         <v>0</v>
       </c>
-      <c r="G77" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="29">
-        <v>74</v>
-      </c>
-      <c r="B78" s="27">
-        <v>30001</v>
-      </c>
-      <c r="C78" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" s="7">
-        <v>5</v>
-      </c>
-      <c r="E78" s="6">
-        <v>6</v>
-      </c>
-      <c r="F78" s="6">
-        <v>60002</v>
-      </c>
       <c r="G78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="29">
-        <v>75</v>
-      </c>
-      <c r="B79" s="27">
-        <v>30002</v>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <v>76</v>
+      </c>
+      <c r="B79" s="19">
+        <v>30003</v>
       </c>
       <c r="C79" s="6">
         <v>1</v>
@@ -3002,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="G79" s="6">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="29">
-        <v>76</v>
-      </c>
-      <c r="B80" s="27">
-        <v>30003</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="21">
+        <v>77</v>
+      </c>
+      <c r="B80" s="19">
+        <v>40001</v>
       </c>
       <c r="C80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="7">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -3025,14 +2989,14 @@
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="29">
-        <v>77</v>
-      </c>
-      <c r="B81" s="27">
+      <c r="A81" s="20">
+        <v>78</v>
+      </c>
+      <c r="B81" s="19">
         <v>40001</v>
       </c>
       <c r="C81" s="6">
@@ -3042,458 +3006,458 @@
         <v>5</v>
       </c>
       <c r="E81" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" s="6">
         <v>0</v>
       </c>
       <c r="G81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
+        <v>79</v>
+      </c>
+      <c r="B82" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C82" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>20001</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="21">
+        <v>80</v>
+      </c>
+      <c r="B83" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>20002</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="21">
+        <v>81</v>
+      </c>
+      <c r="B84" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>20003</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="21">
+        <v>82</v>
+      </c>
+      <c r="B85" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>20004</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="21">
+        <v>83</v>
+      </c>
+      <c r="B86" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>20005</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="21">
+        <v>84</v>
+      </c>
+      <c r="B87" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>20006</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="20">
+        <v>85</v>
+      </c>
+      <c r="B88" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>30001</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="20">
+        <v>86</v>
+      </c>
+      <c r="B89" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C89" s="6">
+        <v>2</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>30002</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="21">
+        <v>87</v>
+      </c>
+      <c r="B90" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>30003</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="21">
+        <v>88</v>
+      </c>
+      <c r="B91" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>30004</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="21">
+        <v>89</v>
+      </c>
+      <c r="B92" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>30005</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="21">
+        <v>90</v>
+      </c>
+      <c r="B93" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C93" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>30006</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="21">
+        <v>91</v>
+      </c>
+      <c r="B94" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>30007</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>92</v>
+      </c>
+      <c r="B95" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>30008</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>93</v>
+      </c>
+      <c r="B96" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>40001</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>94</v>
+      </c>
+      <c r="B97" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>40002</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="21">
+        <v>95</v>
+      </c>
+      <c r="B98" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>40003</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="21">
+        <v>96</v>
+      </c>
+      <c r="B99" s="19">
+        <v>60002</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>40004</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="21">
+        <v>97</v>
+      </c>
+      <c r="B100" s="19">
+        <v>30004</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
-        <v>78</v>
-      </c>
-      <c r="B82" s="27">
-        <v>40001</v>
-      </c>
-      <c r="C82" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" s="7">
-        <v>5</v>
-      </c>
-      <c r="E82" s="6">
-        <v>4</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
-        <v>79</v>
-      </c>
-      <c r="B83" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C83" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" s="7">
-        <v>1</v>
-      </c>
-      <c r="E83" s="6">
-        <v>3</v>
-      </c>
-      <c r="F83">
-        <v>20001</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="29">
-        <v>80</v>
-      </c>
-      <c r="B84" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C84" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" s="7">
-        <v>1</v>
-      </c>
-      <c r="E84" s="6">
-        <v>3</v>
-      </c>
-      <c r="F84">
-        <v>20002</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="29">
-        <v>81</v>
-      </c>
-      <c r="B85" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C85" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" s="7">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>20003</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="29">
-        <v>82</v>
-      </c>
-      <c r="B86" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C86" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" s="7">
-        <v>1</v>
-      </c>
-      <c r="E86" s="6">
-        <v>3</v>
-      </c>
-      <c r="F86">
-        <v>20004</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="29">
-        <v>83</v>
-      </c>
-      <c r="B87" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C87" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" s="7">
-        <v>1</v>
-      </c>
-      <c r="E87" s="6">
-        <v>3</v>
-      </c>
-      <c r="F87">
-        <v>20005</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="29">
-        <v>84</v>
-      </c>
-      <c r="B88" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C88" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" s="7">
-        <v>1</v>
-      </c>
-      <c r="E88" s="6">
-        <v>3</v>
-      </c>
-      <c r="F88">
-        <v>20006</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
-        <v>85</v>
-      </c>
-      <c r="B89" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C89" s="6">
-        <v>2</v>
-      </c>
-      <c r="D89" s="7">
-        <v>1</v>
-      </c>
-      <c r="E89" s="6">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>30001</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="28">
-        <v>86</v>
-      </c>
-      <c r="B90" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C90" s="6">
-        <v>2</v>
-      </c>
-      <c r="D90" s="7">
-        <v>1</v>
-      </c>
-      <c r="E90" s="6">
-        <v>3</v>
-      </c>
-      <c r="F90">
-        <v>30002</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="29">
-        <v>87</v>
-      </c>
-      <c r="B91" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C91" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" s="7">
-        <v>1</v>
-      </c>
-      <c r="E91" s="6">
-        <v>3</v>
-      </c>
-      <c r="F91">
-        <v>30003</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="29">
-        <v>88</v>
-      </c>
-      <c r="B92" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C92" s="6">
-        <v>2</v>
-      </c>
-      <c r="D92" s="7">
-        <v>1</v>
-      </c>
-      <c r="E92" s="6">
-        <v>3</v>
-      </c>
-      <c r="F92">
-        <v>30004</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="29">
-        <v>89</v>
-      </c>
-      <c r="B93" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C93" s="6">
-        <v>2</v>
-      </c>
-      <c r="D93" s="7">
-        <v>1</v>
-      </c>
-      <c r="E93" s="6">
-        <v>3</v>
-      </c>
-      <c r="F93">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="21">
+        <v>98</v>
+      </c>
+      <c r="B101" s="19">
         <v>30005</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="29">
-        <v>90</v>
-      </c>
-      <c r="B94" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C94" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" s="7">
-        <v>1</v>
-      </c>
-      <c r="E94" s="6">
-        <v>3</v>
-      </c>
-      <c r="F94">
-        <v>30006</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="29">
-        <v>91</v>
-      </c>
-      <c r="B95" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C95" s="6">
-        <v>2</v>
-      </c>
-      <c r="D95" s="7">
-        <v>1</v>
-      </c>
-      <c r="E95" s="6">
-        <v>3</v>
-      </c>
-      <c r="F95">
-        <v>30007</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
-        <v>92</v>
-      </c>
-      <c r="B96" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C96" s="6">
-        <v>2</v>
-      </c>
-      <c r="D96" s="7">
-        <v>1</v>
-      </c>
-      <c r="E96" s="6">
-        <v>3</v>
-      </c>
-      <c r="F96">
-        <v>30008</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
-        <v>93</v>
-      </c>
-      <c r="B97" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C97" s="6">
-        <v>2</v>
-      </c>
-      <c r="D97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="6">
-        <v>3</v>
-      </c>
-      <c r="F97">
-        <v>40001</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="29">
-        <v>94</v>
-      </c>
-      <c r="B98" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C98" s="6">
-        <v>2</v>
-      </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="6">
-        <v>3</v>
-      </c>
-      <c r="F98">
-        <v>40002</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="29">
-        <v>95</v>
-      </c>
-      <c r="B99" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C99" s="6">
-        <v>2</v>
-      </c>
-      <c r="D99" s="7">
-        <v>1</v>
-      </c>
-      <c r="E99" s="6">
-        <v>3</v>
-      </c>
-      <c r="F99">
-        <v>40003</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="29">
-        <v>96</v>
-      </c>
-      <c r="B100" s="27">
-        <v>60002</v>
-      </c>
-      <c r="C100" s="6">
-        <v>2</v>
-      </c>
-      <c r="D100" s="7">
-        <v>1</v>
-      </c>
-      <c r="E100" s="6">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>40004</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="29">
-        <v>97</v>
-      </c>
-      <c r="B101" s="27">
-        <v>30004</v>
       </c>
       <c r="C101" s="6">
         <v>1</v>
@@ -3508,31 +3472,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="6">
-        <v>1800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="29">
-        <v>98</v>
-      </c>
-      <c r="B102" s="27">
-        <v>30005</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1</v>
-      </c>
-      <c r="D102" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E102" s="6">
-        <v>1</v>
-      </c>
-      <c r="F102" s="6">
-        <v>0</v>
-      </c>
-      <c r="G102" s="6">
-        <v>600</v>
-      </c>
+      <c r="A102"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
@@ -4163,9 +4107,6 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -337,6 +337,14 @@
       </rPr>
       <t>金币</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给5个小游戏随机5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力20双倍卡25主位卡2张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +901,10 @@
   <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2101,6 +2109,12 @@
       <c r="G42" s="6">
         <v>1</v>
       </c>
+      <c r="I42">
+        <v>30011</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
@@ -2124,6 +2138,12 @@
       <c r="G43" s="6">
         <v>1</v>
       </c>
+      <c r="I43">
+        <v>30012</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
@@ -2543,8 +2563,8 @@
       <c r="H61" s="29"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="21">
-        <v>59</v>
+      <c r="A62" s="20">
+        <v>58</v>
       </c>
       <c r="B62" s="19">
         <v>20012</v>
@@ -2568,7 +2588,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="19">
         <v>20012</v>
@@ -2592,7 +2612,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="19">
         <v>20013</v>
@@ -2616,7 +2636,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="19">
         <v>20013</v>
@@ -2640,7 +2660,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="19">
         <v>20014</v>
@@ -2663,8 +2683,8 @@
       <c r="H66" s="29"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="20">
-        <v>64</v>
+      <c r="A67" s="21">
+        <v>63</v>
       </c>
       <c r="B67" s="19">
         <v>20014</v>
@@ -2688,7 +2708,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="19">
         <v>20015</v>
@@ -2711,8 +2731,8 @@
       <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="21">
-        <v>66</v>
+      <c r="A69" s="20">
+        <v>65</v>
       </c>
       <c r="B69" s="19">
         <v>20016</v>
@@ -2736,7 +2756,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="19">
         <v>20016</v>
@@ -2760,7 +2780,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="19">
         <v>20017</v>
@@ -2784,7 +2804,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="19">
         <v>20017</v>
@@ -2808,7 +2828,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="19">
         <v>20018</v>
@@ -2831,8 +2851,8 @@
       <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
-        <v>71</v>
+      <c r="A74" s="21">
+        <v>70</v>
       </c>
       <c r="B74" s="19">
         <v>20018</v>
@@ -2856,7 +2876,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="19">
         <v>20019</v>
@@ -2878,8 +2898,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="21">
-        <v>73</v>
+      <c r="A76" s="20">
+        <v>72</v>
       </c>
       <c r="B76" s="19">
         <v>30001</v>
@@ -2902,7 +2922,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="19">
         <v>30001</v>
@@ -2925,7 +2945,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="19">
         <v>30002</v>
@@ -2948,7 +2968,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="19">
         <v>30003</v>
@@ -2971,7 +2991,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="19">
         <v>40001</v>
@@ -2993,8 +3013,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="20">
-        <v>78</v>
+      <c r="A81" s="21">
+        <v>77</v>
       </c>
       <c r="B81" s="19">
         <v>40001</v>
@@ -3017,7 +3037,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="19">
         <v>60002</v>
@@ -3039,8 +3059,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="21">
-        <v>80</v>
+      <c r="A83" s="20">
+        <v>79</v>
       </c>
       <c r="B83" s="19">
         <v>60002</v>
@@ -3063,7 +3083,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="19">
         <v>60002</v>
@@ -3086,7 +3106,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="19">
         <v>60002</v>
@@ -3109,7 +3129,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="19">
         <v>60002</v>
@@ -3132,7 +3152,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="19">
         <v>60002</v>
@@ -3154,8 +3174,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="20">
-        <v>85</v>
+      <c r="A88" s="21">
+        <v>84</v>
       </c>
       <c r="B88" s="19">
         <v>60002</v>
@@ -3178,7 +3198,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="19">
         <v>60002</v>
@@ -3200,8 +3220,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="21">
-        <v>87</v>
+      <c r="A90" s="20">
+        <v>86</v>
       </c>
       <c r="B90" s="19">
         <v>60002</v>
@@ -3224,7 +3244,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="19">
         <v>60002</v>
@@ -3247,7 +3267,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="19">
         <v>60002</v>
@@ -3270,7 +3290,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="19">
         <v>60002</v>
@@ -3293,7 +3313,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="19">
         <v>60002</v>
@@ -3315,8 +3335,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="20">
-        <v>92</v>
+      <c r="A95" s="21">
+        <v>91</v>
       </c>
       <c r="B95" s="19">
         <v>60002</v>
@@ -3339,7 +3359,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="19">
         <v>60002</v>
@@ -3361,8 +3381,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="21">
-        <v>94</v>
+      <c r="A97" s="20">
+        <v>93</v>
       </c>
       <c r="B97" s="19">
         <v>60002</v>
@@ -3385,7 +3405,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="19">
         <v>60002</v>
@@ -3408,7 +3428,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="19">
         <v>60002</v>
@@ -3431,7 +3451,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="19">
         <v>30004</v>
@@ -3454,7 +3474,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="19">
         <v>30005</v>
@@ -3476,84 +3496,364 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102"/>
+      <c r="A102" s="20">
+        <v>98</v>
+      </c>
+      <c r="B102" s="19">
+        <v>30006</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E102" s="6">
+        <v>3</v>
+      </c>
+      <c r="F102" s="6">
+        <v>60001</v>
+      </c>
+      <c r="G102" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103"/>
+      <c r="A103" s="20">
+        <v>99</v>
+      </c>
+      <c r="B103" s="19">
+        <v>30007</v>
+      </c>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E103" s="6">
+        <v>2</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104"/>
+      <c r="A104" s="21">
+        <v>100</v>
+      </c>
+      <c r="B104" s="19">
+        <v>30008</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E104" s="6">
+        <v>3</v>
+      </c>
+      <c r="F104" s="6">
+        <v>60001</v>
+      </c>
+      <c r="G104" s="6">
+        <v>25</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105"/>
+      <c r="A105" s="21">
+        <v>101</v>
+      </c>
+      <c r="B105" s="19">
+        <v>30009</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E105" s="6">
+        <v>3</v>
+      </c>
+      <c r="F105" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G105" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106"/>
+      <c r="A106" s="21">
+        <v>102</v>
+      </c>
+      <c r="B106" s="19">
+        <v>30010</v>
+      </c>
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="D106" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E106" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107"/>
+      <c r="A107" s="21">
+        <v>103</v>
+      </c>
+      <c r="B107" s="19">
+        <v>30011</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" s="7">
+        <v>10</v>
+      </c>
+      <c r="E107" s="6">
+        <v>5</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108"/>
+      <c r="A108" s="21">
+        <v>104</v>
+      </c>
+      <c r="B108" s="19">
+        <v>30011</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" s="7">
+        <v>10</v>
+      </c>
+      <c r="E108" s="6">
+        <v>5</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109"/>
+      <c r="A109" s="20">
+        <v>105</v>
+      </c>
+      <c r="B109" s="19">
+        <v>30011</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2</v>
+      </c>
+      <c r="D109" s="7">
+        <v>10</v>
+      </c>
+      <c r="E109" s="6">
+        <v>5</v>
+      </c>
+      <c r="F109" s="6">
+        <v>2</v>
+      </c>
+      <c r="G109" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110"/>
+      <c r="A110" s="20">
+        <v>106</v>
+      </c>
+      <c r="B110" s="19">
+        <v>30011</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" s="7">
+        <v>10</v>
+      </c>
+      <c r="E110" s="6">
+        <v>5</v>
+      </c>
+      <c r="F110" s="6">
+        <v>3</v>
+      </c>
+      <c r="G110" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111"/>
+      <c r="A111" s="21">
+        <v>107</v>
+      </c>
+      <c r="B111" s="19">
+        <v>30011</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" s="7">
+        <v>10</v>
+      </c>
+      <c r="E111" s="6">
+        <v>5</v>
+      </c>
+      <c r="F111" s="6">
+        <v>4</v>
+      </c>
+      <c r="G111" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="21">
+        <v>108</v>
+      </c>
+      <c r="B112" s="19">
+        <v>30012</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0</v>
+      </c>
+      <c r="G112" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="21">
+        <v>109</v>
+      </c>
+      <c r="B113" s="19">
+        <v>30012</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E113" s="6">
+        <v>3</v>
+      </c>
+      <c r="F113" s="6">
+        <v>60001</v>
+      </c>
+      <c r="G113" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="21">
+        <v>110</v>
+      </c>
+      <c r="B114" s="19">
+        <v>30012</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E114" s="6">
+        <v>3</v>
+      </c>
+      <c r="F114" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G114" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="21">
+        <v>111</v>
+      </c>
+      <c r="B115" s="19">
+        <v>30013</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0</v>
+      </c>
+      <c r="G115" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -898,13 +898,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J312"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3450,34 +3450,32 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="21">
-        <v>96</v>
-      </c>
+      <c r="A100" s="21"/>
       <c r="B100" s="19">
-        <v>30004</v>
+        <v>60002</v>
       </c>
       <c r="C100" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="7">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E100" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="6">
-        <v>0</v>
+        <v>40005</v>
       </c>
       <c r="G100" s="6">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="19">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="C101" s="6">
         <v>1</v>
@@ -3492,15 +3490,15 @@
         <v>0</v>
       </c>
       <c r="G101" s="6">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="20">
-        <v>98</v>
+      <c r="A102" s="21">
+        <v>97</v>
       </c>
       <c r="B102" s="19">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
@@ -3509,21 +3507,21 @@
         <v>10000</v>
       </c>
       <c r="E102" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" s="6">
-        <v>60001</v>
+        <v>0</v>
       </c>
       <c r="G102" s="6">
-        <v>15</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="19">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="C103" s="6">
         <v>1</v>
@@ -3532,21 +3530,21 @@
         <v>10000</v>
       </c>
       <c r="E103" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" s="6">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>20</v>
+        <v>60001</v>
+      </c>
+      <c r="G103" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="21">
-        <v>100</v>
+      <c r="A104" s="20">
+        <v>99</v>
       </c>
       <c r="B104" s="19">
-        <v>30008</v>
+        <v>30007</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
@@ -3555,21 +3553,21 @@
         <v>10000</v>
       </c>
       <c r="E104" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104" s="6">
-        <v>60001</v>
-      </c>
-      <c r="G104" s="6">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="19">
-        <v>30009</v>
+        <v>30008</v>
       </c>
       <c r="C105" s="6">
         <v>1</v>
@@ -3581,18 +3579,18 @@
         <v>3</v>
       </c>
       <c r="F105" s="6">
-        <v>10001</v>
+        <v>60001</v>
       </c>
       <c r="G105" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="19">
-        <v>30010</v>
+        <v>30009</v>
       </c>
       <c r="C106" s="6">
         <v>1</v>
@@ -3601,41 +3599,41 @@
         <v>10000</v>
       </c>
       <c r="E106" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" s="6">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>30</v>
+        <v>10001</v>
+      </c>
+      <c r="G106" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="19">
-        <v>30011</v>
+        <v>30010</v>
       </c>
       <c r="C107" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="7">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E107" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F107" s="6">
         <v>0</v>
       </c>
-      <c r="G107" s="6">
-        <v>5</v>
+      <c r="G107">
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="19">
         <v>30011</v>
@@ -3650,15 +3648,15 @@
         <v>5</v>
       </c>
       <c r="F108" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="20">
-        <v>105</v>
+      <c r="A109" s="21">
+        <v>104</v>
       </c>
       <c r="B109" s="19">
         <v>30011</v>
@@ -3673,7 +3671,7 @@
         <v>5</v>
       </c>
       <c r="F109" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="6">
         <v>5</v>
@@ -3681,7 +3679,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="20">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="19">
         <v>30011</v>
@@ -3696,15 +3694,15 @@
         <v>5</v>
       </c>
       <c r="F110" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="21">
-        <v>107</v>
+      <c r="A111" s="20">
+        <v>106</v>
       </c>
       <c r="B111" s="19">
         <v>30011</v>
@@ -3719,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="F111" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111" s="6">
         <v>5</v>
@@ -3727,30 +3725,30 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="19">
-        <v>30012</v>
+        <v>30011</v>
       </c>
       <c r="C112" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E112" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G112" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="19">
         <v>30012</v>
@@ -3762,18 +3760,18 @@
         <v>10000</v>
       </c>
       <c r="E113" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" s="6">
-        <v>60001</v>
+        <v>0</v>
       </c>
       <c r="G113" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="19">
         <v>30012</v>
@@ -3788,18 +3786,18 @@
         <v>3</v>
       </c>
       <c r="F114" s="6">
-        <v>10001</v>
+        <v>60001</v>
       </c>
       <c r="G114" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115" s="19">
-        <v>30013</v>
+        <v>30012</v>
       </c>
       <c r="C115" s="6">
         <v>1</v>
@@ -3808,17 +3806,37 @@
         <v>10000</v>
       </c>
       <c r="E115" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G115" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="21">
+        <v>111</v>
+      </c>
+      <c r="B116" s="19">
+        <v>30013</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E116" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" s="6">
         <v>0</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G116" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
@@ -4407,6 +4425,9 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -901,10 +901,10 @@
   <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="24">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E47" s="25">
         <v>6</v>
@@ -2248,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="24">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E48" s="25">
         <v>1</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -345,6 +345,26 @@
   </si>
   <si>
     <t>体力20双倍卡25主位卡2张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢屁股失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢屁股成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十秒点成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十秒点失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日体力奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +921,10 @@
   <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2167,6 +2187,12 @@
       <c r="G44" s="6">
         <v>1</v>
       </c>
+      <c r="I44">
+        <v>30013</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
@@ -2190,6 +2216,12 @@
       <c r="G45" s="6">
         <v>1</v>
       </c>
+      <c r="I45">
+        <v>30014</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
@@ -2213,6 +2245,12 @@
       <c r="G46" s="6">
         <v>1</v>
       </c>
+      <c r="I46">
+        <v>30015</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
@@ -2236,6 +2274,12 @@
       <c r="G47" s="25">
         <v>1</v>
       </c>
+      <c r="I47">
+        <v>30016</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
@@ -2258,6 +2302,12 @@
       </c>
       <c r="G48" s="25">
         <v>1800</v>
+      </c>
+      <c r="I48">
+        <v>30017</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3839,19 +3889,119 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117"/>
+      <c r="A117" s="21">
+        <v>112</v>
+      </c>
+      <c r="B117" s="19">
+        <v>30014</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6">
+        <v>3600</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118"/>
+      <c r="A118" s="20">
+        <v>113</v>
+      </c>
+      <c r="B118" s="19">
+        <v>30014</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E118" s="6">
+        <v>3</v>
+      </c>
+      <c r="F118" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119"/>
+      <c r="A119" s="20">
+        <v>114</v>
+      </c>
+      <c r="B119" s="19">
+        <v>30015</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0</v>
+      </c>
+      <c r="G119" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120"/>
+      <c r="A120" s="21">
+        <v>115</v>
+      </c>
+      <c r="B120" s="19">
+        <v>30016</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6">
+        <v>1800</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121"/>
+      <c r="A121" s="21">
+        <v>116</v>
+      </c>
+      <c r="B121" s="19">
+        <v>30017</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -921,10 +921,10 @@
   <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42:J48"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="30">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E8" s="23">
         <v>6</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="23">
         <v>6</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E13" s="9">
         <v>6</v>

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -365,6 +365,101 @@
   </si>
   <si>
     <t>每日体力奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆翻牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击宫殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜皇帝成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜皇帝失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00xxx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机约会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币基数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前最高关卡最后一个形象秒产量加之前所有关卡最后一个形象秒产量之和乘以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J313"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,14 +1028,14 @@
     <col min="2" max="2" width="19.69921875" customWidth="1"/>
     <col min="3" max="3" width="21.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.8984375" customWidth="1"/>
     <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.296875" customWidth="1"/>
     <col min="10" max="10" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -971,8 +1066,14 @@
       <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -997,12 +1098,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1034,7 +1135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -1063,7 +1164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -1092,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -1112,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="25">
-        <v>3600</v>
+        <v>14400</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7">
@@ -1122,7 +1223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -1152,7 +1253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>5</v>
       </c>
@@ -1181,7 +1282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>6</v>
       </c>
@@ -1201,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="25">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10">
@@ -1211,7 +1312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>7</v>
       </c>
@@ -1241,7 +1342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>8</v>
       </c>
@@ -1261,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12">
@@ -1271,7 +1372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>9</v>
       </c>
@@ -1301,7 +1402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>10</v>
       </c>
@@ -1331,7 +1432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>11</v>
       </c>
@@ -1361,7 +1462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>12</v>
       </c>
@@ -1846,7 +1947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>29</v>
       </c>
@@ -1875,7 +1976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>30</v>
       </c>
@@ -1904,7 +2005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>31</v>
       </c>
@@ -1933,7 +2034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>32</v>
       </c>
@@ -1962,7 +2063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>33</v>
       </c>
@@ -1991,7 +2092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>34</v>
       </c>
@@ -2020,7 +2121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>35</v>
       </c>
@@ -2049,7 +2150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>36</v>
       </c>
@@ -2078,7 +2179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>37</v>
       </c>
@@ -2107,7 +2208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>38</v>
       </c>
@@ -2136,7 +2237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>39</v>
       </c>
@@ -2165,7 +2266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>40</v>
       </c>
@@ -2193,8 +2294,11 @@
       <c r="J44" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>41</v>
       </c>
@@ -2222,8 +2326,15 @@
       <c r="J45" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>3600</v>
+      </c>
+      <c r="L45">
+        <f>K45*L44</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>42</v>
       </c>
@@ -2251,8 +2362,15 @@
       <c r="J46" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>600</v>
+      </c>
+      <c r="L46" s="6">
+        <f>K46*L44</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>43</v>
       </c>
@@ -2280,8 +2398,15 @@
       <c r="J47" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>1800</v>
+      </c>
+      <c r="L47">
+        <f>K47*L44</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>44</v>
       </c>
@@ -2301,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="25">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I48">
         <v>30017</v>
@@ -2309,8 +2434,15 @@
       <c r="J48" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>600</v>
+      </c>
+      <c r="L48">
+        <f>K48*L44</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>45</v>
       </c>
@@ -2332,8 +2464,21 @@
       <c r="G49" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="25">
+        <v>30004</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" s="25">
+        <v>1800</v>
+      </c>
+      <c r="L49">
+        <f>K49*L44</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>46</v>
       </c>
@@ -2353,10 +2498,23 @@
         <v>0</v>
       </c>
       <c r="G50" s="23">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+      <c r="I50" s="23">
+        <v>30005</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K50" s="23">
+        <v>600</v>
+      </c>
+      <c r="L50">
+        <f>K50*L44</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>47</v>
       </c>
@@ -2379,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>48</v>
       </c>
@@ -2399,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="25">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>49</v>
       </c>
@@ -2425,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>50</v>
       </c>
@@ -2445,10 +2603,23 @@
         <v>0</v>
       </c>
       <c r="G54" s="25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="I54" s="25">
+        <v>30001</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54" s="25">
+        <v>1800</v>
+      </c>
+      <c r="L54">
+        <f>K54*L44</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>51</v>
       </c>
@@ -2470,8 +2641,21 @@
       <c r="G55" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="23">
+        <v>30002</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K55" s="23">
+        <v>2700</v>
+      </c>
+      <c r="L55">
+        <f>K55*L44</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>52</v>
       </c>
@@ -2491,10 +2675,23 @@
         <v>0</v>
       </c>
       <c r="G56" s="25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="I56" s="25">
+        <v>30003</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K56" s="25">
+        <v>600</v>
+      </c>
+      <c r="L56">
+        <f>K56*L44</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>53</v>
       </c>
@@ -2517,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>54</v>
       </c>
@@ -2537,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>55</v>
       </c>
@@ -2563,8 +2760,21 @@
         <v>1</v>
       </c>
       <c r="H59" s="29"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="23">
+        <v>130001</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" s="23">
+        <v>3600</v>
+      </c>
+      <c r="L59">
+        <f>K59*L44</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>56</v>
       </c>
@@ -2587,8 +2797,21 @@
         <v>1</v>
       </c>
       <c r="H60" s="29"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>150001</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60">
+        <v>600</v>
+      </c>
+      <c r="L60">
+        <f>K60*L44</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>57</v>
       </c>
@@ -2611,8 +2834,21 @@
         <v>1</v>
       </c>
       <c r="H61" s="29"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="25">
+        <v>160001</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" s="25">
+        <v>1800</v>
+      </c>
+      <c r="L61">
+        <f>K61*L44</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>58</v>
       </c>
@@ -2636,7 +2872,7 @@
       </c>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>59</v>
       </c>
@@ -2656,11 +2892,24 @@
         <v>0</v>
       </c>
       <c r="G63" s="19">
+        <v>7200</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="25">
+        <v>40001</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" s="25">
         <v>1800</v>
       </c>
-      <c r="H63" s="29"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <f>K63*L44</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>60</v>
       </c>
@@ -2684,7 +2933,7 @@
       </c>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>61</v>
       </c>
@@ -2704,11 +2953,24 @@
         <v>0</v>
       </c>
       <c r="G65" s="19">
+        <v>7200</v>
+      </c>
+      <c r="H65" s="29"/>
+      <c r="I65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" s="25">
         <v>1800</v>
       </c>
-      <c r="H65" s="29"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <f>K65*L44</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>62</v>
       </c>
@@ -2731,8 +2993,11 @@
         <v>1</v>
       </c>
       <c r="H66" s="29"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J66" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>63</v>
       </c>
@@ -2752,11 +3017,11 @@
         <v>0</v>
       </c>
       <c r="G67" s="19">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>64</v>
       </c>
@@ -2780,7 +3045,7 @@
       </c>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>65</v>
       </c>
@@ -2800,11 +3065,11 @@
         <v>0</v>
       </c>
       <c r="G69" s="27">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>66</v>
       </c>
@@ -2828,7 +3093,7 @@
       </c>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>67</v>
       </c>
@@ -2852,7 +3117,7 @@
       </c>
       <c r="H71" s="29"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>68</v>
       </c>
@@ -2872,11 +3137,11 @@
         <v>0</v>
       </c>
       <c r="G72" s="27">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H72" s="29"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>69</v>
       </c>
@@ -2900,7 +3165,7 @@
       </c>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>70</v>
       </c>
@@ -2920,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="G74" s="27">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H74" s="29"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
         <v>71</v>
       </c>
@@ -2944,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>72</v>
       </c>
@@ -2967,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>73</v>
       </c>
@@ -2993,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>74</v>
       </c>
@@ -3013,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G78" s="6">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>75</v>
       </c>
@@ -3036,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
         <v>76</v>
       </c>
@@ -3059,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <v>1800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3500,7 +3765,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="21"/>
+      <c r="A100" s="21">
+        <v>96</v>
+      </c>
       <c r="B100" s="19">
         <v>60002</v>
       </c>
@@ -3522,7 +3789,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="19">
         <v>30004</v>
@@ -3540,12 +3807,12 @@
         <v>0</v>
       </c>
       <c r="G101" s="6">
-        <v>1800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="19">
         <v>30005</v>
@@ -3563,12 +3830,12 @@
         <v>0</v>
       </c>
       <c r="G102" s="6">
-        <v>600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="19">
         <v>30006</v>
@@ -3591,7 +3858,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="19">
         <v>30007</v>
@@ -3614,7 +3881,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="19">
         <v>30008</v>
@@ -3637,7 +3904,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="19">
         <v>30009</v>
@@ -3660,7 +3927,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B107" s="19">
         <v>30010</v>
@@ -3683,7 +3950,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B108" s="19">
         <v>30011</v>
@@ -3706,7 +3973,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B109" s="19">
         <v>30011</v>
@@ -3729,7 +3996,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="20">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B110" s="19">
         <v>30011</v>
@@ -3752,7 +4019,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="20">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="19">
         <v>30011</v>
@@ -3775,7 +4042,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="19">
         <v>30011</v>
@@ -3798,7 +4065,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B113" s="19">
         <v>30012</v>
@@ -3821,7 +4088,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B114" s="19">
         <v>30012</v>
@@ -3844,7 +4111,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B115" s="19">
         <v>30012</v>
@@ -3867,7 +4134,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B116" s="19">
         <v>30013</v>
@@ -3889,8 +4156,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="21">
-        <v>112</v>
+      <c r="A117" s="20">
+        <v>113</v>
       </c>
       <c r="B117" s="19">
         <v>30014</v>
@@ -3908,12 +4175,12 @@
         <v>0</v>
       </c>
       <c r="G117" s="6">
-        <v>3600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B118" s="19">
         <v>30014</v>
@@ -3935,8 +4202,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="20">
-        <v>114</v>
+      <c r="A119" s="21">
+        <v>115</v>
       </c>
       <c r="B119" s="19">
         <v>30015</v>
@@ -3954,12 +4221,12 @@
         <v>0</v>
       </c>
       <c r="G119" s="6">
-        <v>600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" s="19">
         <v>30016</v>
@@ -3977,12 +4244,12 @@
         <v>0</v>
       </c>
       <c r="G120" s="6">
-        <v>1800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" s="19">
         <v>30017</v>
@@ -4000,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="6">
-        <v>600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/Reward.xlsx
+++ b/docs/excel/Reward.xlsx
@@ -1013,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:M313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="25">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="25">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12">
@@ -1947,7 +1947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>29</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>30</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>31</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>32</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>33</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>34</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>35</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>36</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>37</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>38</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>39</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>40</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>41</v>
       </c>
@@ -2333,8 +2333,11 @@
         <f>K45*L44</f>
         <v>14400</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>42</v>
       </c>
@@ -2369,8 +2372,11 @@
         <f>K46*L44</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>43</v>
       </c>
@@ -2405,8 +2411,11 @@
         <f>K47*L44</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>44</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="25">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I48">
         <v>30017</v>
@@ -2441,8 +2450,11 @@
         <f>K48*L44</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>45</v>
       </c>
@@ -2477,8 +2489,11 @@
         <f>K49*L44</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>46</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="23">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I50" s="23">
         <v>30005</v>
@@ -2513,8 +2528,11 @@
         <f>K50*L44</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>47</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>48</v>
       </c>
@@ -2557,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="25">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>49</v>
       </c>
@@ -2583,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>50</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="25">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="I54" s="25">
         <v>30001</v>
@@ -2618,8 +2636,11 @@
         <f>K54*L44</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>51</v>
       </c>
@@ -2654,8 +2675,11 @@
         <f>K55*L44</f>
         <v>10800</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>52</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="25">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="I56" s="25">
         <v>30003</v>
@@ -2690,8 +2714,11 @@
         <f>K56*L44</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>53</v>
       </c>
@@ -2714,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>54</v>
       </c>
@@ -2734,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>55</v>
       </c>
@@ -2773,8 +2800,11 @@
         <f>K59*L44</f>
         <v>14400</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>56</v>
       </c>
@@ -2810,8 +2840,11 @@
         <f>K60*L44</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>57</v>
       </c>
@@ -2847,8 +2880,11 @@
         <f>K61*L44</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>58</v>
       </c>
@@ -2872,7 +2908,7 @@
       </c>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>59</v>
       </c>
@@ -2892,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="19">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="25">
@@ -2908,8 +2944,11 @@
         <f>K63*L44</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>60</v>
       </c>
@@ -2933,7 +2972,7 @@
       </c>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>61</v>
       </c>
@@ -2953,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="19">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="6" t="s">
@@ -2969,8 +3008,11 @@
         <f>K65*L44</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>62</v>
       </c>
@@ -2997,7 +3039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>63</v>
       </c>
@@ -3017,11 +3059,11 @@
         <v>0</v>
       </c>
       <c r="G67" s="19">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>64</v>
       </c>
@@ -3045,7 +3087,7 @@
       </c>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>65</v>
       </c>
@@ -3065,11 +3107,11 @@
         <v>0</v>
       </c>
       <c r="G69" s="27">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>66</v>
       </c>
@@ -3093,7 +3135,7 @@
       </c>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>67</v>
       </c>
@@ -3117,7 +3159,7 @@
       </c>
       <c r="H71" s="29"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>68</v>
       </c>
@@ -3137,11 +3179,11 @@
         <v>0</v>
       </c>
       <c r="G72" s="27">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H72" s="29"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>69</v>
       </c>
@@ -3165,7 +3207,7 @@
       </c>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>70</v>
       </c>
@@ -3185,11 +3227,11 @@
         <v>0</v>
       </c>
       <c r="G74" s="27">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="H74" s="29"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
         <v>71</v>
       </c>
@@ -3209,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>72</v>
       </c>
@@ -3232,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="6">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>73</v>
       </c>
@@ -3258,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>74</v>
       </c>
@@ -3278,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="G78" s="6">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>75</v>
       </c>
@@ -3301,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="6">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
         <v>76</v>
       </c>
@@ -3324,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3807,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="6">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3830,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="6">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4175,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="6">
-        <v>14400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4221,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="6">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4244,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="6">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4267,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="6">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
